--- a/ReviewCode/pandas/Data/各省市订单数据origin.xlsx
+++ b/ReviewCode/pandas/Data/各省市订单数据origin.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李震祥\PYGIT\PYref\ReviewCode\pandas\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1087,12 +1092,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1100,8 +1105,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1147,15 +1159,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1197,7 +1217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1229,9 +1249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,6 +1284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1438,14 +1460,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1519,7 @@
         <v>271</v>
       </c>
       <c r="D2">
-        <v>0.92619926199262</v>
+        <v>0.92619926199262004</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1500,16 +1531,16 @@
         <v>346</v>
       </c>
       <c r="H2">
-        <v>111.8030745</v>
+        <v>111.80307449999999</v>
       </c>
       <c r="I2">
-        <v>17.66900147</v>
+        <v>17.669001470000001</v>
       </c>
       <c r="J2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1551,7 @@
         <v>5156782</v>
       </c>
       <c r="D3">
-        <v>0.9521500036262924</v>
+        <v>0.95215000362629243</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1541,7 +1572,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1583,7 @@
         <v>64059</v>
       </c>
       <c r="D4">
-        <v>0.9578825769993288</v>
+        <v>0.95788257699932877</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1564,16 +1595,16 @@
         <v>346</v>
       </c>
       <c r="H4">
-        <v>99.67064162</v>
+        <v>99.670641619999998</v>
       </c>
       <c r="I4">
-        <v>23.93765366</v>
+        <v>23.937653659999999</v>
       </c>
       <c r="J4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1615,7 @@
         <v>68709</v>
       </c>
       <c r="D5">
-        <v>0.9591319914421692</v>
+        <v>0.95913199144216921</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1599,13 +1630,13 @@
         <v>100.5223761</v>
       </c>
       <c r="I5">
-        <v>26.9399769</v>
+        <v>26.939976900000001</v>
       </c>
       <c r="J5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1647,7 @@
         <v>89186</v>
       </c>
       <c r="D6">
-        <v>0.9659363577243064</v>
+        <v>0.96593635772430642</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1628,16 +1659,16 @@
         <v>346</v>
       </c>
       <c r="H6">
-        <v>98.97018584</v>
+        <v>98.970185839999999</v>
       </c>
       <c r="I6">
-        <v>24.9766729</v>
+        <v>24.976672900000001</v>
       </c>
       <c r="J6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1679,7 @@
         <v>1020429</v>
       </c>
       <c r="D7">
-        <v>0.9583400706957564</v>
+        <v>0.95834007069575644</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1663,13 +1694,13 @@
         <v>102.8723902</v>
       </c>
       <c r="I7">
-        <v>25.38545297</v>
+        <v>25.385452969999999</v>
       </c>
       <c r="J7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1711,7 @@
         <v>127946</v>
       </c>
       <c r="D8">
-        <v>0.9648523595892016</v>
+        <v>0.96485235958920157</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1695,13 +1726,13 @@
         <v>103.9976063</v>
       </c>
       <c r="I8">
-        <v>27.65223296</v>
+        <v>27.652232959999999</v>
       </c>
       <c r="J8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1743,7 @@
         <v>78841</v>
       </c>
       <c r="D9">
-        <v>0.9564566659479204</v>
+        <v>0.95645666594792045</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1724,7 +1755,7 @@
         <v>346</v>
       </c>
       <c r="H9">
-        <v>100.7142342</v>
+        <v>100.71423420000001</v>
       </c>
       <c r="I9">
         <v>23.18338593</v>
@@ -1733,7 +1764,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1775,7 @@
         <v>178728</v>
       </c>
       <c r="D10">
-        <v>0.9639508079316056</v>
+        <v>0.96395080793160559</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1759,13 +1790,13 @@
         <v>103.9388539</v>
       </c>
       <c r="I10">
-        <v>25.70190853</v>
+        <v>25.701908530000001</v>
       </c>
       <c r="J10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1807,7 @@
         <v>121902</v>
       </c>
       <c r="D11">
-        <v>0.9642417679775558</v>
+        <v>0.96424176797755579</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1797,7 +1828,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1839,7 @@
         <v>85527</v>
       </c>
       <c r="D12">
-        <v>0.9408023197352884</v>
+        <v>0.94080231973528838</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1829,7 +1860,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1871,7 @@
         <v>49043</v>
       </c>
       <c r="D13">
-        <v>0.9292661541912201</v>
+        <v>0.92926615419122005</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1852,16 +1883,16 @@
         <v>346</v>
       </c>
       <c r="H13">
-        <v>106.8896526</v>
+        <v>106.88965260000001</v>
       </c>
       <c r="I13">
-        <v>39.41870327</v>
+        <v>39.418703270000002</v>
       </c>
       <c r="J13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1903,7 @@
         <v>240248</v>
       </c>
       <c r="D14">
-        <v>0.9347507575505312</v>
+        <v>0.93475075755053116</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1884,7 +1915,7 @@
         <v>346</v>
       </c>
       <c r="H14">
-        <v>110.2577664</v>
+        <v>110.25776639999999</v>
       </c>
       <c r="I14">
         <v>41.54870863</v>
@@ -1893,7 +1924,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1904,7 +1935,7 @@
         <v>145263</v>
       </c>
       <c r="D15">
-        <v>0.9259549919800636</v>
+        <v>0.92595499198006359</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1919,13 +1950,13 @@
         <v>121.1627046</v>
       </c>
       <c r="I15">
-        <v>49.64984174</v>
+        <v>49.649841739999999</v>
       </c>
       <c r="J15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1936,7 +1967,7 @@
         <v>380233</v>
       </c>
       <c r="D16">
-        <v>0.9339957341945596</v>
+        <v>0.93399573419455961</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1951,13 +1982,13 @@
         <v>111.4998901</v>
       </c>
       <c r="I16">
-        <v>40.58934316</v>
+        <v>40.589343159999999</v>
       </c>
       <c r="J16" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1999,7 @@
         <v>90617</v>
       </c>
       <c r="D17">
-        <v>0.9387532140768288</v>
+        <v>0.93875321407682877</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1989,7 +2020,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2031,7 @@
         <v>192698</v>
       </c>
       <c r="D18">
-        <v>0.9355312457835576</v>
+        <v>0.93553124578355762</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -2015,13 +2046,13 @@
         <v>118.8792969</v>
       </c>
       <c r="I18">
-        <v>43.20331164</v>
+        <v>43.203311640000003</v>
       </c>
       <c r="J18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2063,7 @@
         <v>134047</v>
       </c>
       <c r="D19">
-        <v>0.9360746603803144</v>
+        <v>0.93607466038031439</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -2047,13 +2078,13 @@
         <v>121.5771335</v>
       </c>
       <c r="I19">
-        <v>43.81837567</v>
+        <v>43.818375670000002</v>
       </c>
       <c r="J19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>154570</v>
       </c>
       <c r="D20">
-        <v>0.9245261046774924</v>
+        <v>0.92452610467749241</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -2076,16 +2107,16 @@
         <v>346</v>
       </c>
       <c r="H20">
-        <v>108.619313</v>
+        <v>108.61931300000001</v>
       </c>
       <c r="I20">
-        <v>39.40757353</v>
+        <v>39.407573530000001</v>
       </c>
       <c r="J20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2096,7 +2127,7 @@
         <v>5746913</v>
       </c>
       <c r="D21">
-        <v>0.9156359248869784</v>
+        <v>0.91563592488697843</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -2111,13 +2142,13 @@
         <v>116.4106532</v>
       </c>
       <c r="I21">
-        <v>40.18364019</v>
+        <v>40.183640189999998</v>
       </c>
       <c r="J21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2128,7 +2159,7 @@
         <v>1282369</v>
       </c>
       <c r="D22">
-        <v>0.971811545662754</v>
+        <v>0.97181154566275396</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -2143,13 +2174,13 @@
         <v>126.8469971</v>
       </c>
       <c r="I22">
-        <v>43.57941760000001</v>
+        <v>43.579417600000014</v>
       </c>
       <c r="J22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2172,16 +2203,16 @@
         <v>346</v>
       </c>
       <c r="H23">
-        <v>124.4740184</v>
+        <v>124.47401840000001</v>
       </c>
       <c r="I23">
-        <v>43.57022234</v>
+        <v>43.570222340000001</v>
       </c>
       <c r="J23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2207,13 +2238,13 @@
         <v>124.472488</v>
       </c>
       <c r="I24">
-        <v>44.80023575</v>
+        <v>44.800235749999999</v>
       </c>
       <c r="J24" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2236,16 +2267,16 @@
         <v>346</v>
       </c>
       <c r="H25">
-        <v>123.0109093</v>
+        <v>123.01090929999999</v>
       </c>
       <c r="I25">
-        <v>45.34331239</v>
+        <v>45.343312390000001</v>
       </c>
       <c r="J25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -2271,13 +2302,13 @@
         <v>127.2868228</v>
       </c>
       <c r="I26">
-        <v>42.06745913</v>
+        <v>42.067459130000003</v>
       </c>
       <c r="J26" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2300,16 +2331,16 @@
         <v>346</v>
       </c>
       <c r="H27">
-        <v>125.3056245</v>
+        <v>125.30562449999999</v>
       </c>
       <c r="I27">
-        <v>42.81002948</v>
+        <v>42.810029479999997</v>
       </c>
       <c r="J27" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2335,13 +2366,13 @@
         <v>125.9495989</v>
       </c>
       <c r="I28">
-        <v>41.95255792</v>
+        <v>41.952557919999997</v>
       </c>
       <c r="J28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2352,7 +2383,7 @@
         <v>1093806</v>
       </c>
       <c r="D29">
-        <v>0.970378659469778</v>
+        <v>0.97037865946977797</v>
       </c>
       <c r="E29" t="s">
         <v>37</v>
@@ -2367,13 +2398,13 @@
         <v>125.7643053</v>
       </c>
       <c r="I29">
-        <v>44.38207574</v>
+        <v>44.382075739999998</v>
       </c>
       <c r="J29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2384,7 +2415,7 @@
         <v>192361</v>
       </c>
       <c r="D30">
-        <v>0.9700147119218552</v>
+        <v>0.97001471192185518</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -2396,16 +2427,16 @@
         <v>346</v>
       </c>
       <c r="H30">
-        <v>103.5671094</v>
+        <v>103.56710940000001</v>
       </c>
       <c r="I30">
-        <v>29.20990151</v>
+        <v>29.209901510000002</v>
       </c>
       <c r="J30" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2416,7 +2447,7 @@
         <v>167022</v>
       </c>
       <c r="D31">
-        <v>0.9740213864041862</v>
+        <v>0.97402138640418623</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
@@ -2431,13 +2462,13 @@
         <v>104.9103064</v>
       </c>
       <c r="I31">
-        <v>29.64110195</v>
+        <v>29.641101949999999</v>
       </c>
       <c r="J31" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +2479,7 @@
         <v>301648</v>
       </c>
       <c r="D32">
-        <v>0.973900042433565</v>
+        <v>0.97390004243356498</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -2460,16 +2491,16 @@
         <v>346</v>
       </c>
       <c r="H32">
-        <v>106.202723</v>
+        <v>106.20272300000001</v>
       </c>
       <c r="I32">
-        <v>31.19495864</v>
+        <v>31.194958639999999</v>
       </c>
       <c r="J32" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2480,7 +2511,7 @@
         <v>228201</v>
       </c>
       <c r="D33">
-        <v>0.9703945206199798</v>
+        <v>0.97039452061997977</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -2492,7 +2523,7 @@
         <v>346</v>
       </c>
       <c r="H33">
-        <v>104.6333754</v>
+        <v>104.63337540000001</v>
       </c>
       <c r="I33">
         <v>28.57355141</v>
@@ -2501,7 +2532,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2512,7 +2543,7 @@
         <v>116278</v>
       </c>
       <c r="D34">
-        <v>0.9759369786202032</v>
+        <v>0.97593697862020323</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
@@ -2527,13 +2558,13 @@
         <v>107.0374027</v>
       </c>
       <c r="I34">
-        <v>32.01664419</v>
+        <v>32.016644190000001</v>
       </c>
       <c r="J34" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2544,7 +2575,7 @@
         <v>112787</v>
       </c>
       <c r="D35">
-        <v>0.970900901699664</v>
+        <v>0.97090090169966403</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
@@ -2559,13 +2590,13 @@
         <v>105.7807315</v>
       </c>
       <c r="I35">
-        <v>32.26157186</v>
+        <v>32.261571859999997</v>
       </c>
       <c r="J35" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2576,7 +2607,7 @@
         <v>155460</v>
       </c>
       <c r="D36">
-        <v>0.9759873922552426</v>
+        <v>0.97598739225524256</v>
       </c>
       <c r="E36" t="s">
         <v>44</v>
@@ -2591,13 +2622,13 @@
         <v>106.6641255</v>
       </c>
       <c r="I36">
-        <v>30.4266135</v>
+        <v>30.426613499999998</v>
       </c>
       <c r="J36" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2608,7 +2639,7 @@
         <v>238915</v>
       </c>
       <c r="D37">
-        <v>0.9700730385283468</v>
+        <v>0.97007303852834681</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
@@ -2623,13 +2654,13 @@
         <v>104.4317329</v>
       </c>
       <c r="I37">
-        <v>31.13342459</v>
+        <v>31.133424590000001</v>
       </c>
       <c r="J37" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2671,7 @@
         <v>2865078</v>
       </c>
       <c r="D38">
-        <v>0.9654075735459908</v>
+        <v>0.96540757354599083</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
@@ -2655,13 +2686,13 @@
         <v>103.8238444</v>
       </c>
       <c r="I38">
-        <v>30.70123797</v>
+        <v>30.701237970000001</v>
       </c>
       <c r="J38" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2672,7 +2703,7 @@
         <v>75262</v>
       </c>
       <c r="D39">
-        <v>0.9658127607557598</v>
+        <v>0.96581276075575984</v>
       </c>
       <c r="E39" t="s">
         <v>47</v>
@@ -2687,13 +2718,13 @@
         <v>101.7301879</v>
       </c>
       <c r="I39">
-        <v>26.80648033</v>
+        <v>26.806480329999999</v>
       </c>
       <c r="J39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2704,7 +2735,7 @@
         <v>218248</v>
       </c>
       <c r="D40">
-        <v>0.969594223085664</v>
+        <v>0.96959422308566401</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
@@ -2719,13 +2750,13 @@
         <v>105.6660566</v>
       </c>
       <c r="I40">
-        <v>28.43973552</v>
+        <v>28.439735519999999</v>
       </c>
       <c r="J40" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2767,7 @@
         <v>167867</v>
       </c>
       <c r="D41">
-        <v>0.9720612151286436</v>
+        <v>0.97206121512864363</v>
       </c>
       <c r="E41" t="s">
         <v>49</v>
@@ -2751,13 +2782,13 @@
         <v>103.7489454</v>
       </c>
       <c r="I41">
-        <v>29.9263803</v>
+        <v>29.926380300000002</v>
       </c>
       <c r="J41" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2768,7 +2799,7 @@
         <v>357857</v>
       </c>
       <c r="D42">
-        <v>0.970423940288998</v>
+        <v>0.97042394028899803</v>
       </c>
       <c r="E42" t="s">
         <v>50</v>
@@ -2783,13 +2814,13 @@
         <v>104.7047992</v>
       </c>
       <c r="I42">
-        <v>31.84814646</v>
+        <v>31.848146459999999</v>
       </c>
       <c r="J42" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2800,7 +2831,7 @@
         <v>149561</v>
       </c>
       <c r="D43">
-        <v>0.9740975254244088</v>
+        <v>0.97409752542440875</v>
       </c>
       <c r="E43" t="s">
         <v>51</v>
@@ -2815,13 +2846,13 @@
         <v>104.6821297</v>
       </c>
       <c r="I43">
-        <v>29.28762159</v>
+        <v>29.287621590000001</v>
       </c>
       <c r="J43" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2832,7 +2863,7 @@
         <v>102172</v>
       </c>
       <c r="D44">
-        <v>0.9738480209842226</v>
+        <v>0.97384802098422263</v>
       </c>
       <c r="E44" t="s">
         <v>52</v>
@@ -2844,7 +2875,7 @@
         <v>346</v>
       </c>
       <c r="H44">
-        <v>104.9513497</v>
+        <v>104.95134969999999</v>
       </c>
       <c r="I44">
         <v>30.18132495</v>
@@ -2853,7 +2884,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2864,7 +2895,7 @@
         <v>207494</v>
       </c>
       <c r="D45">
-        <v>0.9758595429265424</v>
+        <v>0.97585954292654242</v>
       </c>
       <c r="E45" t="s">
         <v>53</v>
@@ -2879,13 +2910,13 @@
         <v>107.6415441</v>
       </c>
       <c r="I45">
-        <v>31.36424734</v>
+        <v>31.364247339999999</v>
       </c>
       <c r="J45" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2896,7 +2927,7 @@
         <v>143376</v>
       </c>
       <c r="D46">
-        <v>0.9740821336904364</v>
+        <v>0.97408213369043639</v>
       </c>
       <c r="E46" t="s">
         <v>54</v>
@@ -2911,13 +2942,13 @@
         <v>105.4712571</v>
       </c>
       <c r="I46">
-        <v>30.63189282</v>
+        <v>30.631892820000001</v>
       </c>
       <c r="J46" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2949,7 +2980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2960,7 +2991,7 @@
         <v>2410936</v>
       </c>
       <c r="D48">
-        <v>0.9469044387739866</v>
+        <v>0.94690443877398656</v>
       </c>
       <c r="E48" t="s">
         <v>56</v>
@@ -2975,13 +3006,13 @@
         <v>117.3267275</v>
       </c>
       <c r="I48">
-        <v>39.30633233</v>
+        <v>39.306332329999996</v>
       </c>
       <c r="J48" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2992,7 +3023,7 @@
         <v>38740</v>
       </c>
       <c r="D49">
-        <v>0.9350542075374292</v>
+        <v>0.93505420753742918</v>
       </c>
       <c r="E49" t="s">
         <v>57</v>
@@ -3007,13 +3038,13 @@
         <v>105.4742162</v>
       </c>
       <c r="I49">
-        <v>37.04187964</v>
+        <v>37.041879639999998</v>
       </c>
       <c r="J49" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>59174</v>
       </c>
       <c r="D50">
-        <v>0.936796566059418</v>
+        <v>0.93679656605941797</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -3036,16 +3067,16 @@
         <v>346</v>
       </c>
       <c r="H50">
-        <v>106.5426352</v>
+        <v>106.54263520000001</v>
       </c>
       <c r="I50">
-        <v>37.45753745</v>
+        <v>37.457537449999997</v>
       </c>
       <c r="J50" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3056,7 +3087,7 @@
         <v>43240</v>
       </c>
       <c r="D51">
-        <v>0.9367021276595744</v>
+        <v>0.93670212765957439</v>
       </c>
       <c r="E51" t="s">
         <v>59</v>
@@ -3071,13 +3102,13 @@
         <v>106.180875</v>
       </c>
       <c r="I51">
-        <v>35.95133072</v>
+        <v>35.951330720000001</v>
       </c>
       <c r="J51" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3088,7 +3119,7 @@
         <v>45367</v>
       </c>
       <c r="D52">
-        <v>0.9362311812550972</v>
+        <v>0.93623118125509719</v>
       </c>
       <c r="E52" t="s">
         <v>60</v>
@@ -3103,13 +3134,13 @@
         <v>106.5171069</v>
       </c>
       <c r="I52">
-        <v>39.00759401</v>
+        <v>39.007594009999998</v>
       </c>
       <c r="J52" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3120,7 +3151,7 @@
         <v>282995</v>
       </c>
       <c r="D53">
-        <v>0.9276135620770684</v>
+        <v>0.92761356207706835</v>
       </c>
       <c r="E53" t="s">
         <v>61</v>
@@ -3141,7 +3172,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3152,7 +3183,7 @@
         <v>211988</v>
       </c>
       <c r="D54">
-        <v>0.979885653904938</v>
+        <v>0.97988565390493798</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
@@ -3167,13 +3198,13 @@
         <v>116.1829426</v>
       </c>
       <c r="I54">
-        <v>33.43441311</v>
+        <v>33.434413110000001</v>
       </c>
       <c r="J54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3184,7 +3215,7 @@
         <v>255091</v>
       </c>
       <c r="D55">
-        <v>0.9773571000152886</v>
+        <v>0.97735710001528864</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
@@ -3205,7 +3236,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3237,7 +3268,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3248,7 +3279,7 @@
         <v>262549</v>
       </c>
       <c r="D57">
-        <v>0.9784154576859938</v>
+        <v>0.97841545768599381</v>
       </c>
       <c r="E57" t="s">
         <v>65</v>
@@ -3260,16 +3291,16 @@
         <v>346</v>
       </c>
       <c r="H57">
-        <v>116.5944505</v>
+        <v>116.59445049999999</v>
       </c>
       <c r="I57">
-        <v>30.6092329</v>
+        <v>30.609232899999999</v>
       </c>
       <c r="J57" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3280,7 +3311,7 @@
         <v>167401</v>
       </c>
       <c r="D58">
-        <v>0.9747014653436956</v>
+        <v>0.97470146534369562</v>
       </c>
       <c r="E58" t="s">
         <v>66</v>
@@ -3295,13 +3326,13 @@
         <v>118.8521992</v>
       </c>
       <c r="I58">
-        <v>30.68525049</v>
+        <v>30.685250490000001</v>
       </c>
       <c r="J58" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3312,7 +3343,7 @@
         <v>232441</v>
       </c>
       <c r="D59">
-        <v>0.9787860145155116</v>
+        <v>0.97878601451551162</v>
       </c>
       <c r="E59" t="s">
         <v>67</v>
@@ -3327,13 +3358,13 @@
         <v>117.2138179</v>
       </c>
       <c r="I59">
-        <v>33.8580475</v>
+        <v>33.858047499999998</v>
       </c>
       <c r="J59" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3344,7 +3375,7 @@
         <v>90134</v>
       </c>
       <c r="D60">
-        <v>0.9759358288770054</v>
+        <v>0.97593582887700536</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
@@ -3365,7 +3396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3376,7 +3407,7 @@
         <v>132308</v>
       </c>
       <c r="D61">
-        <v>0.9765244731988996</v>
+        <v>0.97652447319889957</v>
       </c>
       <c r="E61" t="s">
         <v>69</v>
@@ -3391,13 +3422,13 @@
         <v>116.7428891</v>
       </c>
       <c r="I61">
-        <v>33.72666728</v>
+        <v>33.726667280000001</v>
       </c>
       <c r="J61" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3408,7 +3439,7 @@
         <v>213885</v>
       </c>
       <c r="D62">
-        <v>0.9758047548916474</v>
+        <v>0.97580475489164742</v>
       </c>
       <c r="E62" t="s">
         <v>70</v>
@@ -3429,7 +3460,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -3440,7 +3471,7 @@
         <v>251302</v>
       </c>
       <c r="D63">
-        <v>0.9787188323212708</v>
+        <v>0.97871883232127077</v>
       </c>
       <c r="E63" t="s">
         <v>71</v>
@@ -3455,13 +3486,13 @@
         <v>118.1026584</v>
       </c>
       <c r="I63">
-        <v>32.54413339</v>
+        <v>32.544133389999999</v>
       </c>
       <c r="J63" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -3472,7 +3503,7 @@
         <v>355575</v>
       </c>
       <c r="D64">
-        <v>0.9756338325247838</v>
+        <v>0.97563383252478375</v>
       </c>
       <c r="E64" t="s">
         <v>72</v>
@@ -3484,7 +3515,7 @@
         <v>346</v>
       </c>
       <c r="H64">
-        <v>118.3302847</v>
+        <v>118.33028470000001</v>
       </c>
       <c r="I64">
         <v>31.07383196</v>
@@ -3493,7 +3524,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -3504,7 +3535,7 @@
         <v>229624</v>
       </c>
       <c r="D65">
-        <v>0.9775415461798418</v>
+        <v>0.97754154617984179</v>
       </c>
       <c r="E65" t="s">
         <v>73</v>
@@ -3519,13 +3550,13 @@
         <v>117.3257471</v>
       </c>
       <c r="I65">
-        <v>33.10860664</v>
+        <v>33.108606639999998</v>
       </c>
       <c r="J65" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -3536,7 +3567,7 @@
         <v>99104</v>
       </c>
       <c r="D66">
-        <v>0.970919438165967</v>
+        <v>0.97091943816596704</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
@@ -3548,7 +3579,7 @@
         <v>346</v>
       </c>
       <c r="H66">
-        <v>117.8741142</v>
+        <v>117.87411419999999</v>
       </c>
       <c r="I66">
         <v>30.92724055</v>
@@ -3557,7 +3588,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3599,7 @@
         <v>402652</v>
       </c>
       <c r="D67">
-        <v>0.9795182937126852</v>
+        <v>0.97951829371268517</v>
       </c>
       <c r="E67" t="s">
         <v>75</v>
@@ -3580,7 +3611,7 @@
         <v>346</v>
       </c>
       <c r="H67">
-        <v>115.7047583</v>
+        <v>115.70475829999999</v>
       </c>
       <c r="I67">
         <v>32.91701003</v>
@@ -3589,7 +3620,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -3600,7 +3631,7 @@
         <v>196386</v>
       </c>
       <c r="D68">
-        <v>0.9735469941849216</v>
+        <v>0.97354699418492163</v>
       </c>
       <c r="E68" t="s">
         <v>76</v>
@@ -3615,13 +3646,13 @@
         <v>118.6193045</v>
       </c>
       <c r="I68">
-        <v>31.53347863</v>
+        <v>31.533478630000001</v>
       </c>
       <c r="J68" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3632,7 +3663,7 @@
         <v>108876</v>
       </c>
       <c r="D69">
-        <v>0.9689555090194352</v>
+        <v>0.96895550901943517</v>
       </c>
       <c r="E69" t="s">
         <v>77</v>
@@ -3647,13 +3678,13 @@
         <v>118.0713362</v>
       </c>
       <c r="I69">
-        <v>29.90680843</v>
+        <v>29.906808430000002</v>
       </c>
       <c r="J69" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -3664,7 +3695,7 @@
         <v>238981</v>
       </c>
       <c r="D70">
-        <v>0.9692360480540294</v>
+        <v>0.96923604805402941</v>
       </c>
       <c r="E70" t="s">
         <v>78</v>
@@ -3679,13 +3710,13 @@
         <v>118.5956195</v>
       </c>
       <c r="I70">
-        <v>37.61083827</v>
+        <v>37.610838270000002</v>
       </c>
       <c r="J70" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3696,7 +3727,7 @@
         <v>708148</v>
       </c>
       <c r="D71">
-        <v>0.9777151104006508</v>
+        <v>0.97771511040065084</v>
       </c>
       <c r="E71" t="s">
         <v>79</v>
@@ -3717,7 +3748,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3728,7 +3759,7 @@
         <v>356763</v>
       </c>
       <c r="D72">
-        <v>0.9725419956665908</v>
+        <v>0.97254199566659083</v>
       </c>
       <c r="E72" t="s">
         <v>80</v>
@@ -3743,13 +3774,13 @@
         <v>121.9781849</v>
       </c>
       <c r="I72">
-        <v>37.11987896</v>
+        <v>37.119878960000001</v>
       </c>
       <c r="J72" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3760,7 +3791,7 @@
         <v>341078</v>
       </c>
       <c r="D73">
-        <v>0.9761432868727974</v>
+        <v>0.97614328687279739</v>
       </c>
       <c r="E73" t="s">
         <v>81</v>
@@ -3775,13 +3806,13 @@
         <v>116.6442272</v>
       </c>
       <c r="I73">
-        <v>37.24634775</v>
+        <v>37.246347749999998</v>
       </c>
       <c r="J73" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -3792,7 +3823,7 @@
         <v>239192</v>
       </c>
       <c r="D74">
-        <v>0.9769557510284624</v>
+        <v>0.97695575102846244</v>
       </c>
       <c r="E74" t="s">
         <v>82</v>
@@ -3804,16 +3835,16 @@
         <v>346</v>
       </c>
       <c r="H74">
-        <v>119.1319212</v>
+        <v>119.13192119999999</v>
       </c>
       <c r="I74">
-        <v>35.58560256</v>
+        <v>35.585602559999998</v>
       </c>
       <c r="J74" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -3824,7 +3855,7 @@
         <v>264343</v>
       </c>
       <c r="D75">
-        <v>0.9781306862674632</v>
+        <v>0.97813068626746325</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
@@ -3839,13 +3870,13 @@
         <v>117.3930074</v>
       </c>
       <c r="I75">
-        <v>34.91541396</v>
+        <v>34.915413960000002</v>
       </c>
       <c r="J75" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -3856,7 +3887,7 @@
         <v>399374</v>
       </c>
       <c r="D76">
-        <v>0.9757670754731156</v>
+        <v>0.97576707547311559</v>
       </c>
       <c r="E76" t="s">
         <v>84</v>
@@ -3868,7 +3899,7 @@
         <v>346</v>
       </c>
       <c r="H76">
-        <v>117.0266052</v>
+        <v>117.02660520000001</v>
       </c>
       <c r="I76">
         <v>36.00151571</v>
@@ -3877,7 +3908,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -3888,7 +3919,7 @@
         <v>1324606</v>
       </c>
       <c r="D77">
-        <v>0.9717583945716688</v>
+        <v>0.97175839457166879</v>
       </c>
       <c r="E77" t="s">
         <v>85</v>
@@ -3909,7 +3940,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3920,7 +3951,7 @@
         <v>578594</v>
       </c>
       <c r="D78">
-        <v>0.9770166991016151</v>
+        <v>0.97701669910161515</v>
       </c>
       <c r="E78" t="s">
         <v>86</v>
@@ -3935,13 +3966,13 @@
         <v>116.732557</v>
       </c>
       <c r="I78">
-        <v>35.37502122</v>
+        <v>35.375021220000001</v>
       </c>
       <c r="J78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3952,7 +3983,7 @@
         <v>425238</v>
       </c>
       <c r="D79">
-        <v>0.9715571044920728</v>
+        <v>0.97155710449207278</v>
       </c>
       <c r="E79" t="s">
         <v>87</v>
@@ -3967,13 +3998,13 @@
         <v>118.0546836</v>
       </c>
       <c r="I79">
-        <v>36.60824771</v>
+        <v>36.608247710000001</v>
       </c>
       <c r="J79" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -3984,7 +4015,7 @@
         <v>267228</v>
       </c>
       <c r="D80">
-        <v>0.9754591584714176</v>
+        <v>0.97545915847141762</v>
       </c>
       <c r="E80" t="s">
         <v>88</v>
@@ -3999,13 +4030,13 @@
         <v>117.8270029</v>
       </c>
       <c r="I80">
-        <v>37.49984639</v>
+        <v>37.499846390000002</v>
       </c>
       <c r="J80" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -4016,7 +4047,7 @@
         <v>811872</v>
       </c>
       <c r="D81">
-        <v>0.9744516376965828</v>
+        <v>0.97445163769658283</v>
       </c>
       <c r="E81" t="s">
         <v>89</v>
@@ -4028,16 +4059,16 @@
         <v>346</v>
       </c>
       <c r="H81">
-        <v>119.0719382</v>
+        <v>119.07193820000001</v>
       </c>
       <c r="I81">
-        <v>36.53989565</v>
+        <v>36.539895649999998</v>
       </c>
       <c r="J81" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4048,7 +4079,7 @@
         <v>789864</v>
       </c>
       <c r="D82">
-        <v>0.9739018362654835</v>
+        <v>0.97390183626548354</v>
       </c>
       <c r="E82" t="s">
         <v>90</v>
@@ -4069,7 +4100,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4080,7 +4111,7 @@
         <v>387735</v>
       </c>
       <c r="D83">
-        <v>0.978627155144622</v>
+        <v>0.97862715514462195</v>
       </c>
       <c r="E83" t="s">
         <v>91</v>
@@ -4095,13 +4126,13 @@
         <v>115.8790293</v>
       </c>
       <c r="I83">
-        <v>36.45605814</v>
+        <v>36.456058140000003</v>
       </c>
       <c r="J83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4112,7 +4143,7 @@
         <v>84461</v>
       </c>
       <c r="D84">
-        <v>0.9744497460366324</v>
+        <v>0.97444974603663237</v>
       </c>
       <c r="E84" t="s">
         <v>92</v>
@@ -4127,13 +4158,13 @@
         <v>117.6613222</v>
       </c>
       <c r="I84">
-        <v>36.27344462</v>
+        <v>36.273444619999999</v>
       </c>
       <c r="J84" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4144,7 +4175,7 @@
         <v>456197</v>
       </c>
       <c r="D85">
-        <v>0.9802278401655424</v>
+        <v>0.98022784016554243</v>
       </c>
       <c r="E85" t="s">
         <v>93</v>
@@ -4156,7 +4187,7 @@
         <v>346</v>
       </c>
       <c r="H85">
-        <v>115.6919452</v>
+        <v>115.69194520000001</v>
       </c>
       <c r="I85">
         <v>35.15140822</v>
@@ -4165,7 +4196,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4176,7 +4207,7 @@
         <v>1499189</v>
       </c>
       <c r="D86">
-        <v>0.9676865291834452</v>
+        <v>0.96768652918344522</v>
       </c>
       <c r="E86" t="s">
         <v>94</v>
@@ -4188,16 +4219,16 @@
         <v>348</v>
       </c>
       <c r="H86">
-        <v>120.1476135</v>
+        <v>120.14761350000001</v>
       </c>
       <c r="I86">
-        <v>36.4548582</v>
+        <v>36.454858199999997</v>
       </c>
       <c r="J86" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4208,7 +4239,7 @@
         <v>304014</v>
       </c>
       <c r="D87">
-        <v>0.9790601748603682</v>
+        <v>0.97906017486036823</v>
       </c>
       <c r="E87" t="s">
         <v>95</v>
@@ -4220,16 +4251,16 @@
         <v>346</v>
       </c>
       <c r="H87">
-        <v>111.377891</v>
+        <v>111.37789100000001</v>
       </c>
       <c r="I87">
-        <v>36.22611675</v>
+        <v>36.226116750000003</v>
       </c>
       <c r="J87" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4240,7 +4271,7 @@
         <v>248544</v>
       </c>
       <c r="D88">
-        <v>0.9802892043259946</v>
+        <v>0.98028920432599465</v>
       </c>
       <c r="E88" t="s">
         <v>96</v>
@@ -4255,13 +4286,13 @@
         <v>111.2618363</v>
       </c>
       <c r="I88">
-        <v>37.6761215</v>
+        <v>37.676121500000001</v>
       </c>
       <c r="J88" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4272,7 +4303,7 @@
         <v>335666</v>
       </c>
       <c r="D89">
-        <v>0.9746742297402776</v>
+        <v>0.97467422974027762</v>
       </c>
       <c r="E89" t="s">
         <v>97</v>
@@ -4284,16 +4315,16 @@
         <v>346</v>
       </c>
       <c r="H89">
-        <v>113.7229247</v>
+        <v>113.72292469999999</v>
       </c>
       <c r="I89">
-        <v>39.89899391</v>
+        <v>39.898993910000002</v>
       </c>
       <c r="J89" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -4304,7 +4335,7 @@
         <v>948679</v>
       </c>
       <c r="D90">
-        <v>0.9721992370443532</v>
+        <v>0.97219923704435318</v>
       </c>
       <c r="E90" t="s">
         <v>98</v>
@@ -4319,13 +4350,13 @@
         <v>112.3149516</v>
       </c>
       <c r="I90">
-        <v>37.95930246</v>
+        <v>37.959302460000004</v>
       </c>
       <c r="J90" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -4336,7 +4367,7 @@
         <v>243901</v>
       </c>
       <c r="D91">
-        <v>0.981668791845872</v>
+        <v>0.98166879184587197</v>
       </c>
       <c r="E91" t="s">
         <v>99</v>
@@ -4357,7 +4388,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -4368,7 +4399,7 @@
         <v>343649</v>
       </c>
       <c r="D92">
-        <v>0.9790891287330968</v>
+        <v>0.97908912873309684</v>
       </c>
       <c r="E92" t="s">
         <v>100</v>
@@ -4380,16 +4411,16 @@
         <v>346</v>
       </c>
       <c r="H92">
-        <v>112.9581588</v>
+        <v>112.95815880000001</v>
       </c>
       <c r="I92">
-        <v>37.32698633</v>
+        <v>37.326986329999997</v>
       </c>
       <c r="J92" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -4400,7 +4431,7 @@
         <v>184867</v>
       </c>
       <c r="D93">
-        <v>0.9782384092347473</v>
+        <v>0.97823840923474725</v>
       </c>
       <c r="E93" t="s">
         <v>101</v>
@@ -4415,13 +4446,13 @@
         <v>112.7061753</v>
       </c>
       <c r="I93">
-        <v>35.61060579999999</v>
+        <v>35.610605799999988</v>
       </c>
       <c r="J93" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -4432,7 +4463,7 @@
         <v>142987</v>
       </c>
       <c r="D94">
-        <v>0.982019344415926</v>
+        <v>0.98201934441592598</v>
       </c>
       <c r="E94" t="s">
         <v>102</v>
@@ -4444,16 +4475,16 @@
         <v>346</v>
       </c>
       <c r="H94">
-        <v>112.6408073</v>
+        <v>112.64080730000001</v>
       </c>
       <c r="I94">
-        <v>39.6173317</v>
+        <v>39.617331700000001</v>
       </c>
       <c r="J94" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -4464,7 +4495,7 @@
         <v>317931</v>
       </c>
       <c r="D95">
-        <v>0.9776335116739168</v>
+        <v>0.97763351167391677</v>
       </c>
       <c r="E95" t="s">
         <v>103</v>
@@ -4479,13 +4510,13 @@
         <v>111.0614515</v>
       </c>
       <c r="I95">
-        <v>35.18644206</v>
+        <v>35.186442059999997</v>
       </c>
       <c r="J95" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -4496,7 +4527,7 @@
         <v>241167</v>
       </c>
       <c r="D96">
-        <v>0.9777166859479116</v>
+        <v>0.97771668594791161</v>
       </c>
       <c r="E96" t="s">
         <v>104</v>
@@ -4508,16 +4539,16 @@
         <v>346</v>
       </c>
       <c r="H96">
-        <v>112.9171215</v>
+        <v>112.91712149999999</v>
       </c>
       <c r="I96">
-        <v>36.47523256</v>
+        <v>36.475232560000002</v>
       </c>
       <c r="J96" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -4528,7 +4559,7 @@
         <v>133258</v>
       </c>
       <c r="D97">
-        <v>0.9790106410121718</v>
+        <v>0.97901064101217183</v>
       </c>
       <c r="E97" t="s">
         <v>105</v>
@@ -4543,13 +4574,13 @@
         <v>113.4979246</v>
       </c>
       <c r="I97">
-        <v>38.06342104</v>
+        <v>38.063421040000001</v>
       </c>
       <c r="J97" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -4560,7 +4591,7 @@
         <v>1894684</v>
       </c>
       <c r="D98">
-        <v>0.9690291362570222</v>
+        <v>0.96902913625702225</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -4575,13 +4606,13 @@
         <v>113.8826309</v>
       </c>
       <c r="I98">
-        <v>22.93782063</v>
+        <v>22.937820630000001</v>
       </c>
       <c r="J98" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -4592,7 +4623,7 @@
         <v>705794</v>
       </c>
       <c r="D99">
-        <v>0.970355372814164</v>
+        <v>0.97035537281416395</v>
       </c>
       <c r="E99" t="s">
         <v>107</v>
@@ -4604,16 +4635,16 @@
         <v>346</v>
       </c>
       <c r="H99">
-        <v>113.3770082</v>
+        <v>113.37700820000001</v>
       </c>
       <c r="I99">
-        <v>22.52087327</v>
+        <v>22.520873269999999</v>
       </c>
       <c r="J99" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -4624,7 +4655,7 @@
         <v>132373</v>
       </c>
       <c r="D100">
-        <v>0.9743754391001186</v>
+        <v>0.97437543910011859</v>
       </c>
       <c r="E100" t="s">
         <v>108</v>
@@ -4639,13 +4670,13 @@
         <v>111.7944766</v>
       </c>
       <c r="I100">
-        <v>22.81590148</v>
+        <v>22.815901480000001</v>
       </c>
       <c r="J100" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4656,7 +4687,7 @@
         <v>1270019</v>
       </c>
       <c r="D101">
-        <v>0.9694264416516604</v>
+        <v>0.96942644165166036</v>
       </c>
       <c r="E101" t="s">
         <v>109</v>
@@ -4671,13 +4702,13 @@
         <v>112.9458228</v>
       </c>
       <c r="I101">
-        <v>23.00680034</v>
+        <v>23.006800340000002</v>
       </c>
       <c r="J101" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -4688,7 +4719,7 @@
         <v>3819075</v>
       </c>
       <c r="D102">
-        <v>0.9659325883885496</v>
+        <v>0.96593258838854956</v>
       </c>
       <c r="E102" t="s">
         <v>110</v>
@@ -4703,13 +4734,13 @@
         <v>113.5319653</v>
       </c>
       <c r="I102">
-        <v>23.3606149</v>
+        <v>23.360614900000002</v>
       </c>
       <c r="J102" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -4720,7 +4751,7 @@
         <v>794066</v>
       </c>
       <c r="D103">
-        <v>0.9737654048907772</v>
+        <v>0.97376540489077723</v>
       </c>
       <c r="E103" t="s">
         <v>111</v>
@@ -4732,16 +4763,16 @@
         <v>346</v>
       </c>
       <c r="H103">
-        <v>114.4989208</v>
+        <v>114.49892079999999</v>
       </c>
       <c r="I103">
-        <v>23.24277907</v>
+        <v>23.242779070000001</v>
       </c>
       <c r="J103" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -4752,7 +4783,7 @@
         <v>421557</v>
       </c>
       <c r="D104">
-        <v>0.9776874776127548</v>
+        <v>0.97768747761275476</v>
       </c>
       <c r="E104" t="s">
         <v>112</v>
@@ -4764,16 +4795,16 @@
         <v>346</v>
       </c>
       <c r="H104">
-        <v>116.1179165</v>
+        <v>116.11791650000001</v>
       </c>
       <c r="I104">
-        <v>23.33617115</v>
+        <v>23.336171149999998</v>
       </c>
       <c r="J104" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -4784,7 +4815,7 @@
         <v>266358</v>
       </c>
       <c r="D105">
-        <v>0.9760322573378686</v>
+        <v>0.97603225733786858</v>
       </c>
       <c r="E105" t="s">
         <v>113</v>
@@ -4799,13 +4830,13 @@
         <v>116.0796756</v>
       </c>
       <c r="I105">
-        <v>24.20281097</v>
+        <v>24.202810970000002</v>
       </c>
       <c r="J105" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -4816,7 +4847,7 @@
         <v>599195</v>
       </c>
       <c r="D106">
-        <v>0.9759744323634209</v>
+        <v>0.97597443236342085</v>
       </c>
       <c r="E106" t="s">
         <v>114</v>
@@ -4831,13 +4862,13 @@
         <v>116.5816626</v>
       </c>
       <c r="I106">
-        <v>23.33381796</v>
+        <v>23.333817960000001</v>
       </c>
       <c r="J106" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -4848,7 +4879,7 @@
         <v>198458</v>
       </c>
       <c r="D107">
-        <v>0.9771689727801348</v>
+        <v>0.97716897278013481</v>
       </c>
       <c r="E107" t="s">
         <v>115</v>
@@ -4869,7 +4900,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -4880,7 +4911,7 @@
         <v>436611</v>
       </c>
       <c r="D108">
-        <v>0.9721834768249082</v>
+        <v>0.97218347682490824</v>
       </c>
       <c r="E108" t="s">
         <v>116</v>
@@ -4892,7 +4923,7 @@
         <v>346</v>
       </c>
       <c r="H108">
-        <v>112.6685228</v>
+        <v>112.66852280000001</v>
       </c>
       <c r="I108">
         <v>22.28538094</v>
@@ -4901,7 +4932,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -4912,7 +4943,7 @@
         <v>201809</v>
       </c>
       <c r="D109">
-        <v>0.9759029577471768</v>
+        <v>0.97590295774717684</v>
       </c>
       <c r="E109" t="s">
         <v>117</v>
@@ -4933,7 +4964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -4944,7 +4975,7 @@
         <v>3665388</v>
       </c>
       <c r="D110">
-        <v>0.9645470002084364</v>
+        <v>0.96454700020843642</v>
       </c>
       <c r="E110" t="s">
         <v>118</v>
@@ -4959,13 +4990,13 @@
         <v>114.1262885</v>
       </c>
       <c r="I110">
-        <v>22.65538519</v>
+        <v>22.655385190000001</v>
       </c>
       <c r="J110" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -4976,7 +5007,7 @@
         <v>265220</v>
       </c>
       <c r="D111">
-        <v>0.9740592715481488</v>
+        <v>0.97405927154814875</v>
       </c>
       <c r="E111" t="s">
         <v>119</v>
@@ -4991,13 +5022,13 @@
         <v>112.8775328</v>
       </c>
       <c r="I111">
-        <v>24.31301205</v>
+        <v>24.313012050000001</v>
       </c>
       <c r="J111" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -5008,7 +5039,7 @@
         <v>399565</v>
       </c>
       <c r="D112">
-        <v>0.975493349017056</v>
+        <v>0.97549334901705598</v>
       </c>
       <c r="E112" t="s">
         <v>120</v>
@@ -5023,13 +5054,13 @@
         <v>110.1544892</v>
       </c>
       <c r="I112">
-        <v>21.09635897</v>
+        <v>21.096358970000001</v>
       </c>
       <c r="J112" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -5040,7 +5071,7 @@
         <v>248120</v>
       </c>
       <c r="D113">
-        <v>0.976559729163308</v>
+        <v>0.97655972916330802</v>
       </c>
       <c r="E113" t="s">
         <v>121</v>
@@ -5061,7 +5092,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -5072,7 +5103,7 @@
         <v>510020</v>
       </c>
       <c r="D114">
-        <v>0.9653915532724208</v>
+        <v>0.96539155327242077</v>
       </c>
       <c r="E114" t="s">
         <v>122</v>
@@ -5087,13 +5118,13 @@
         <v>113.3624458</v>
       </c>
       <c r="I114">
-        <v>22.18169688</v>
+        <v>22.181696880000001</v>
       </c>
       <c r="J114" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -5104,7 +5135,7 @@
         <v>282980</v>
       </c>
       <c r="D115">
-        <v>0.9731005724786204</v>
+        <v>0.97310057247862036</v>
       </c>
       <c r="E115" t="s">
         <v>123</v>
@@ -5119,13 +5150,13 @@
         <v>112.2052729</v>
       </c>
       <c r="I115">
-        <v>23.53893482</v>
+        <v>23.538934820000001</v>
       </c>
       <c r="J115" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -5136,7 +5167,7 @@
         <v>288816</v>
       </c>
       <c r="D116">
-        <v>0.9730243476815688</v>
+        <v>0.97302434768156876</v>
       </c>
       <c r="E116" t="s">
         <v>124</v>
@@ -5151,13 +5182,13 @@
         <v>110.9491438</v>
       </c>
       <c r="I116">
-        <v>22.01466985</v>
+        <v>22.014669850000001</v>
       </c>
       <c r="J116" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -5168,7 +5199,7 @@
         <v>164871</v>
       </c>
       <c r="D117">
-        <v>0.972839371387327</v>
+        <v>0.97283937138732701</v>
       </c>
       <c r="E117" t="s">
         <v>125</v>
@@ -5183,13 +5214,13 @@
         <v>111.7713339</v>
       </c>
       <c r="I117">
-        <v>22.04011969</v>
+        <v>22.040119690000001</v>
       </c>
       <c r="J117" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -5200,7 +5231,7 @@
         <v>216356</v>
       </c>
       <c r="D118">
-        <v>0.974306236018414</v>
+        <v>0.97430623601841404</v>
       </c>
       <c r="E118" t="s">
         <v>126</v>
@@ -5215,13 +5246,13 @@
         <v>113.772887</v>
       </c>
       <c r="I118">
-        <v>24.81895611</v>
+        <v>24.818956109999998</v>
       </c>
       <c r="J118" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -5232,7 +5263,7 @@
         <v>159027</v>
       </c>
       <c r="D119">
-        <v>0.9700553993975866</v>
+        <v>0.97005539939758656</v>
       </c>
       <c r="E119" t="s">
         <v>127</v>
@@ -5253,7 +5284,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -5264,7 +5295,7 @@
         <v>976461</v>
       </c>
       <c r="D120">
-        <v>0.9677877559882064</v>
+        <v>0.96778775598820643</v>
       </c>
       <c r="E120" t="s">
         <v>128</v>
@@ -5279,13 +5310,13 @@
         <v>108.4632063</v>
       </c>
       <c r="I120">
-        <v>23.05716741</v>
+        <v>23.057167410000002</v>
       </c>
       <c r="J120" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -5296,7 +5327,7 @@
         <v>113931</v>
       </c>
       <c r="D121">
-        <v>0.9661988396485592</v>
+        <v>0.96619883964855924</v>
       </c>
       <c r="E121" t="s">
         <v>129</v>
@@ -5311,13 +5342,13 @@
         <v>107.2728101</v>
       </c>
       <c r="I121">
-        <v>22.50273226</v>
+        <v>22.502732259999998</v>
       </c>
       <c r="J121" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -5328,7 +5359,7 @@
         <v>92648</v>
       </c>
       <c r="D122">
-        <v>0.9734586823244972</v>
+        <v>0.97345868232449717</v>
       </c>
       <c r="E122" t="s">
         <v>130</v>
@@ -5340,16 +5371,16 @@
         <v>346</v>
       </c>
       <c r="H122">
-        <v>109.4113317</v>
+        <v>109.41133170000001</v>
       </c>
       <c r="I122">
-        <v>23.85475831</v>
+        <v>23.854758310000001</v>
       </c>
       <c r="J122" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -5360,7 +5391,7 @@
         <v>348427</v>
       </c>
       <c r="D123">
-        <v>0.9686218347028216</v>
+        <v>0.96862183470282159</v>
       </c>
       <c r="E123" t="s">
         <v>131</v>
@@ -5375,13 +5406,13 @@
         <v>109.37165</v>
       </c>
       <c r="I123">
-        <v>24.94606866</v>
+        <v>24.946068660000002</v>
       </c>
       <c r="J123" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -5392,7 +5423,7 @@
         <v>414508</v>
       </c>
       <c r="D124">
-        <v>0.9719764154129716</v>
+        <v>0.97197641541297164</v>
       </c>
       <c r="E124" t="s">
         <v>132</v>
@@ -5404,16 +5435,16 @@
         <v>346</v>
       </c>
       <c r="H124">
-        <v>110.5131182</v>
+        <v>110.51311819999999</v>
       </c>
       <c r="I124">
-        <v>25.3526455</v>
+        <v>25.352645500000001</v>
       </c>
       <c r="J124" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -5424,7 +5455,7 @@
         <v>147356</v>
       </c>
       <c r="D125">
-        <v>0.9740560275794674</v>
+        <v>0.97405602757946741</v>
       </c>
       <c r="E125" t="s">
         <v>133</v>
@@ -5439,13 +5470,13 @@
         <v>110.9905607</v>
       </c>
       <c r="I125">
-        <v>23.48018285</v>
+        <v>23.480182849999998</v>
       </c>
       <c r="J125" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -5456,7 +5487,7 @@
         <v>144144</v>
       </c>
       <c r="D126">
-        <v>0.9699883449883449</v>
+        <v>0.96998834498834485</v>
       </c>
       <c r="E126" t="s">
         <v>134</v>
@@ -5468,16 +5499,16 @@
         <v>346</v>
       </c>
       <c r="H126">
-        <v>107.8399032</v>
+        <v>107.83990319999999</v>
       </c>
       <c r="I126">
-        <v>24.64243899</v>
+        <v>24.642438989999999</v>
       </c>
       <c r="J126" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -5488,7 +5519,7 @@
         <v>261661</v>
       </c>
       <c r="D127">
-        <v>0.9749867194576188</v>
+        <v>0.97498671945761883</v>
       </c>
       <c r="E127" t="s">
         <v>135</v>
@@ -5509,7 +5540,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -5520,7 +5551,7 @@
         <v>167270</v>
       </c>
       <c r="D128">
-        <v>0.9693489567764692</v>
+        <v>0.96934895677646915</v>
       </c>
       <c r="E128" t="s">
         <v>136</v>
@@ -5532,16 +5563,16 @@
         <v>346</v>
       </c>
       <c r="H128">
-        <v>106.2869708</v>
+        <v>106.28697080000001</v>
       </c>
       <c r="I128">
-        <v>23.98603926</v>
+        <v>23.986039259999998</v>
       </c>
       <c r="J128" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -5552,7 +5583,7 @@
         <v>167810</v>
       </c>
       <c r="D129">
-        <v>0.9742268041237112</v>
+        <v>0.97422680412371121</v>
       </c>
       <c r="E129" t="s">
         <v>137</v>
@@ -5567,13 +5598,13 @@
         <v>109.9967655</v>
       </c>
       <c r="I129">
-        <v>23.307615</v>
+        <v>23.307614999999998</v>
       </c>
       <c r="J129" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -5584,7 +5615,7 @@
         <v>98061</v>
       </c>
       <c r="D130">
-        <v>0.9744444784368912</v>
+        <v>0.97444447843689119</v>
       </c>
       <c r="E130" t="s">
         <v>138</v>
@@ -5596,7 +5627,7 @@
         <v>346</v>
       </c>
       <c r="H130">
-        <v>111.3619347</v>
+        <v>111.36193470000001</v>
       </c>
       <c r="I130">
         <v>24.35988459</v>
@@ -5605,7 +5636,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -5616,7 +5647,7 @@
         <v>146932</v>
       </c>
       <c r="D131">
-        <v>0.973797402880244</v>
+        <v>0.97379740288024397</v>
       </c>
       <c r="E131" t="s">
         <v>139</v>
@@ -5631,13 +5662,13 @@
         <v>109.0144042</v>
       </c>
       <c r="I131">
-        <v>22.17413012</v>
+        <v>22.174130120000001</v>
       </c>
       <c r="J131" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -5648,7 +5679,7 @@
         <v>80496</v>
       </c>
       <c r="D132">
-        <v>0.9672406082289804</v>
+        <v>0.96724060822898039</v>
       </c>
       <c r="E132" t="s">
         <v>140</v>
@@ -5669,7 +5700,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -5680,7 +5711,7 @@
         <v>294885</v>
       </c>
       <c r="D133">
-        <v>0.8749173406582227</v>
+        <v>0.87491734065822269</v>
       </c>
       <c r="E133" t="s">
         <v>141</v>
@@ -5692,16 +5723,16 @@
         <v>346</v>
       </c>
       <c r="H133">
-        <v>87.77782078</v>
+        <v>87.777820779999999</v>
       </c>
       <c r="I133">
-        <v>43.7275786</v>
+        <v>43.727578600000001</v>
       </c>
       <c r="J133" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -5724,16 +5755,16 @@
         <v>346</v>
       </c>
       <c r="H134">
-        <v>87.55596805</v>
+        <v>87.555968050000004</v>
       </c>
       <c r="I134">
-        <v>44.36113376</v>
+        <v>44.361133760000001</v>
       </c>
       <c r="J134" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -5744,7 +5775,7 @@
         <v>35906</v>
       </c>
       <c r="D135">
-        <v>0.8617779758257673</v>
+        <v>0.86177797582576732</v>
       </c>
       <c r="E135" t="s">
         <v>143</v>
@@ -5756,16 +5787,16 @@
         <v>346</v>
       </c>
       <c r="H135">
-        <v>85.16374465</v>
+        <v>85.163744649999998</v>
       </c>
       <c r="I135">
-        <v>45.441068</v>
+        <v>45.441068000000001</v>
       </c>
       <c r="J135" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5776,7 +5807,7 @@
         <v>15665</v>
       </c>
       <c r="D136">
-        <v>0.8764762208745611</v>
+        <v>0.87647622087456112</v>
       </c>
       <c r="E136" t="s">
         <v>144</v>
@@ -5788,16 +5819,16 @@
         <v>346</v>
       </c>
       <c r="H136">
-        <v>89.83314598</v>
+        <v>89.833145979999998</v>
       </c>
       <c r="I136">
-        <v>42.38762156</v>
+        <v>42.387621559999999</v>
       </c>
       <c r="J136" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -5808,7 +5839,7 @@
         <v>33255</v>
       </c>
       <c r="D137">
-        <v>0.8860021049466246</v>
+        <v>0.88600210494662457</v>
       </c>
       <c r="E137" t="s">
         <v>145</v>
@@ -5820,16 +5851,16 @@
         <v>346</v>
       </c>
       <c r="H137">
-        <v>93.5214598</v>
+        <v>93.521459800000002</v>
       </c>
       <c r="I137">
-        <v>43.02093808</v>
+        <v>43.020938080000001</v>
       </c>
       <c r="J137" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -5852,16 +5883,16 @@
         <v>346</v>
       </c>
       <c r="H138">
-        <v>79.18845937</v>
+        <v>79.188459370000004</v>
       </c>
       <c r="I138">
-        <v>39.88244904</v>
+        <v>39.882449039999997</v>
       </c>
       <c r="J138" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -5884,7 +5915,7 @@
         <v>346</v>
       </c>
       <c r="H139">
-        <v>86.03266111000001</v>
+        <v>86.032661110000006</v>
       </c>
       <c r="I139">
         <v>44.30080486</v>
@@ -5893,7 +5924,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -5916,16 +5947,16 @@
         <v>346</v>
       </c>
       <c r="H140">
-        <v>81.280298</v>
+        <v>81.280298000000002</v>
       </c>
       <c r="I140">
-        <v>40.60883744</v>
+        <v>40.608837440000002</v>
       </c>
       <c r="J140" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -5948,16 +5979,16 @@
         <v>348</v>
       </c>
       <c r="H141">
-        <v>118.8431577</v>
+        <v>118.84315770000001</v>
       </c>
       <c r="I141">
-        <v>31.9256626</v>
+        <v>31.925662599999999</v>
       </c>
       <c r="J141" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -5968,7 +5999,7 @@
         <v>706499</v>
       </c>
       <c r="D142">
-        <v>0.968895922004136</v>
+        <v>0.96889592200413599</v>
       </c>
       <c r="E142" t="s">
         <v>150</v>
@@ -5983,13 +6014,13 @@
         <v>121.0097232</v>
       </c>
       <c r="I142">
-        <v>32.19949259</v>
+        <v>32.199492589999998</v>
       </c>
       <c r="J142" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -6000,7 +6031,7 @@
         <v>266502</v>
       </c>
       <c r="D143">
-        <v>0.96909591672858</v>
+        <v>0.96909591672857998</v>
       </c>
       <c r="E143" t="s">
         <v>151</v>
@@ -6012,7 +6043,7 @@
         <v>346</v>
       </c>
       <c r="H143">
-        <v>118.5185473</v>
+        <v>118.51854729999999</v>
       </c>
       <c r="I143">
         <v>33.78408031</v>
@@ -6021,7 +6052,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -6047,13 +6078,13 @@
         <v>119.6275959</v>
       </c>
       <c r="I144">
-        <v>31.62737265</v>
+        <v>31.627372650000002</v>
       </c>
       <c r="J144" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -6064,7 +6095,7 @@
         <v>649596</v>
       </c>
       <c r="D145">
-        <v>0.9703723545095722</v>
+        <v>0.97037235450957215</v>
       </c>
       <c r="E145" t="s">
         <v>153</v>
@@ -6076,16 +6107,16 @@
         <v>346</v>
       </c>
       <c r="H145">
-        <v>117.5155952</v>
+        <v>117.51559520000001</v>
       </c>
       <c r="I145">
-        <v>34.35792623</v>
+        <v>34.357926229999997</v>
       </c>
       <c r="J145" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -6096,7 +6127,7 @@
         <v>453370</v>
       </c>
       <c r="D146">
-        <v>0.9691488188455344</v>
+        <v>0.96914881884553439</v>
       </c>
       <c r="E146" t="s">
         <v>154</v>
@@ -6108,16 +6139,16 @@
         <v>346</v>
       </c>
       <c r="H146">
-        <v>119.4729443</v>
+        <v>119.47294429999999</v>
       </c>
       <c r="I146">
-        <v>32.73703251</v>
+        <v>32.737032509999999</v>
       </c>
       <c r="J146" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -6128,7 +6159,7 @@
         <v>1015138</v>
       </c>
       <c r="D147">
-        <v>0.966996605387642</v>
+        <v>0.96699660538764198</v>
       </c>
       <c r="E147" t="s">
         <v>155</v>
@@ -6143,13 +6174,13 @@
         <v>120.0729401</v>
       </c>
       <c r="I147">
-        <v>31.54704863</v>
+        <v>31.547048629999999</v>
       </c>
       <c r="J147" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -6160,7 +6191,7 @@
         <v>346725</v>
       </c>
       <c r="D148">
-        <v>0.9717037998413728</v>
+        <v>0.97170379984137278</v>
       </c>
       <c r="E148" t="s">
         <v>156</v>
@@ -6175,13 +6206,13 @@
         <v>120.0533921</v>
       </c>
       <c r="I148">
-        <v>32.57920895</v>
+        <v>32.579208950000002</v>
       </c>
       <c r="J148" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -6192,7 +6223,7 @@
         <v>349223</v>
       </c>
       <c r="D149">
-        <v>0.971511040223582</v>
+        <v>0.97151104022358203</v>
       </c>
       <c r="E149" t="s">
         <v>157</v>
@@ -6213,7 +6244,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6239,13 +6270,13 @@
         <v>120.162446</v>
       </c>
       <c r="I150">
-        <v>33.52457195</v>
+        <v>33.524571950000002</v>
       </c>
       <c r="J150" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -6256,7 +6287,7 @@
         <v>2164041</v>
       </c>
       <c r="D151">
-        <v>0.9691498451277032</v>
+        <v>0.96914984512770319</v>
       </c>
       <c r="E151" t="s">
         <v>159</v>
@@ -6271,13 +6302,13 @@
         <v>120.7430227</v>
       </c>
       <c r="I151">
-        <v>31.41391547</v>
+        <v>31.413915469999999</v>
       </c>
       <c r="J151" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -6303,13 +6334,13 @@
         <v>119.1324195</v>
       </c>
       <c r="I152">
-        <v>34.52981627</v>
+        <v>34.529816269999998</v>
       </c>
       <c r="J152" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -6320,7 +6351,7 @@
         <v>409419</v>
       </c>
       <c r="D153">
-        <v>0.9676541635830286</v>
+        <v>0.96765416358302858</v>
       </c>
       <c r="E153" t="s">
         <v>161</v>
@@ -6332,16 +6363,16 @@
         <v>346</v>
       </c>
       <c r="H153">
-        <v>119.4531811</v>
+        <v>119.45318109999999</v>
       </c>
       <c r="I153">
-        <v>32.0160262</v>
+        <v>32.016026199999999</v>
       </c>
       <c r="J153" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -6352,7 +6383,7 @@
         <v>426033</v>
       </c>
       <c r="D154">
-        <v>0.978975807038422</v>
+        <v>0.97897580703842202</v>
       </c>
       <c r="E154" t="s">
         <v>162</v>
@@ -6364,16 +6395,16 @@
         <v>346</v>
       </c>
       <c r="H154">
-        <v>117.4714047</v>
+        <v>117.47140469999999</v>
       </c>
       <c r="I154">
-        <v>28.77365841</v>
+        <v>28.773658409999999</v>
       </c>
       <c r="J154" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -6384,7 +6415,7 @@
         <v>435093</v>
       </c>
       <c r="D155">
-        <v>0.978708000358544</v>
+        <v>0.97870800035854399</v>
       </c>
       <c r="E155" t="s">
         <v>163</v>
@@ -6399,13 +6430,13 @@
         <v>115.4370636</v>
       </c>
       <c r="I155">
-        <v>29.32514679</v>
+        <v>29.325146790000002</v>
       </c>
       <c r="J155" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -6416,7 +6447,7 @@
         <v>1133583</v>
       </c>
       <c r="D156">
-        <v>0.9769483134450676</v>
+        <v>0.97694831344506761</v>
       </c>
       <c r="E156" t="s">
         <v>164</v>
@@ -6431,13 +6462,13 @@
         <v>116.0256984</v>
       </c>
       <c r="I156">
-        <v>28.65984184</v>
+        <v>28.659841839999999</v>
       </c>
       <c r="J156" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -6448,7 +6479,7 @@
         <v>300684</v>
       </c>
       <c r="D157">
-        <v>0.9800554735203736</v>
+        <v>0.98005547352037359</v>
       </c>
       <c r="E157" t="s">
         <v>165</v>
@@ -6460,16 +6491,16 @@
         <v>346</v>
       </c>
       <c r="H157">
-        <v>114.8224839</v>
+        <v>114.82248389999999</v>
       </c>
       <c r="I157">
-        <v>26.97196863</v>
+        <v>26.971968629999999</v>
       </c>
       <c r="J157" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -6480,7 +6511,7 @@
         <v>346005</v>
       </c>
       <c r="D158">
-        <v>0.9806765798182108</v>
+        <v>0.98067657981821077</v>
       </c>
       <c r="E158" t="s">
         <v>166</v>
@@ -6492,16 +6523,16 @@
         <v>346</v>
       </c>
       <c r="H158">
-        <v>114.9724225</v>
+        <v>114.97242249999999</v>
       </c>
       <c r="I158">
-        <v>28.30590511</v>
+        <v>28.305905110000001</v>
       </c>
       <c r="J158" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -6512,7 +6543,7 @@
         <v>262886</v>
       </c>
       <c r="D159">
-        <v>0.9814976834064956</v>
+        <v>0.98149768340649557</v>
       </c>
       <c r="E159" t="s">
         <v>167</v>
@@ -6533,7 +6564,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -6544,7 +6575,7 @@
         <v>102382</v>
       </c>
       <c r="D160">
-        <v>0.9764118692738958</v>
+        <v>0.97641186927389578</v>
       </c>
       <c r="E160" t="s">
         <v>168</v>
@@ -6559,13 +6590,13 @@
         <v>114.8514443</v>
       </c>
       <c r="I160">
-        <v>27.84510274</v>
+        <v>27.845102740000002</v>
       </c>
       <c r="J160" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -6576,7 +6607,7 @@
         <v>167291</v>
       </c>
       <c r="D161">
-        <v>0.9786121190022176</v>
+        <v>0.97861211900221756</v>
       </c>
       <c r="E161" t="s">
         <v>169</v>
@@ -6597,7 +6628,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -6608,7 +6639,7 @@
         <v>141501</v>
       </c>
       <c r="D162">
-        <v>0.977392385919534</v>
+        <v>0.97739238591953403</v>
       </c>
       <c r="E162" t="s">
         <v>170</v>
@@ -6623,13 +6654,13 @@
         <v>113.9029998</v>
       </c>
       <c r="I162">
-        <v>27.51234956</v>
+        <v>27.512349560000001</v>
       </c>
       <c r="J162" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -6640,7 +6671,7 @@
         <v>648983</v>
       </c>
       <c r="D163">
-        <v>0.9786928162987319</v>
+        <v>0.97869281629873195</v>
       </c>
       <c r="E163" t="s">
         <v>171</v>
@@ -6655,13 +6686,13 @@
         <v>115.2705495</v>
       </c>
       <c r="I163">
-        <v>25.70750783</v>
+        <v>25.707507830000001</v>
       </c>
       <c r="J163" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -6672,7 +6703,7 @@
         <v>99787</v>
       </c>
       <c r="D164">
-        <v>0.9800675438684398</v>
+        <v>0.98006754386843975</v>
       </c>
       <c r="E164" t="s">
         <v>172</v>
@@ -6687,13 +6718,13 @@
         <v>117.1079945</v>
       </c>
       <c r="I164">
-        <v>28.22377781</v>
+        <v>28.223777810000001</v>
       </c>
       <c r="J164" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -6704,7 +6735,7 @@
         <v>871743</v>
       </c>
       <c r="D165">
-        <v>0.9744569213632917</v>
+        <v>0.97445692136329165</v>
       </c>
       <c r="E165" t="s">
         <v>173</v>
@@ -6719,13 +6750,13 @@
         <v>115.1701109</v>
       </c>
       <c r="I165">
-        <v>39.02069495</v>
+        <v>39.020694949999999</v>
       </c>
       <c r="J165" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -6736,7 +6767,7 @@
         <v>694058</v>
       </c>
       <c r="D166">
-        <v>0.9737168939771604</v>
+        <v>0.97371689397716044</v>
       </c>
       <c r="E166" t="s">
         <v>174</v>
@@ -6757,7 +6788,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -6768,7 +6799,7 @@
         <v>654060</v>
       </c>
       <c r="D167">
-        <v>0.9690273063633306</v>
+        <v>0.96902730636333057</v>
       </c>
       <c r="E167" t="s">
         <v>175</v>
@@ -6789,7 +6820,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -6800,7 +6831,7 @@
         <v>378607</v>
       </c>
       <c r="D168">
-        <v>0.9748446278066702</v>
+        <v>0.97484462780667025</v>
       </c>
       <c r="E168" t="s">
         <v>176</v>
@@ -6815,13 +6846,13 @@
         <v>115.031463</v>
       </c>
       <c r="I168">
-        <v>40.86153018</v>
+        <v>40.861530180000003</v>
       </c>
       <c r="J168" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -6832,7 +6863,7 @@
         <v>260506</v>
       </c>
       <c r="D169">
-        <v>0.9710332967378872</v>
+        <v>0.97103329673788719</v>
       </c>
       <c r="E169" t="s">
         <v>177</v>
@@ -6847,13 +6878,13 @@
         <v>117.5523625</v>
       </c>
       <c r="I169">
-        <v>41.34311891</v>
+        <v>41.343118910000001</v>
       </c>
       <c r="J169" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -6864,7 +6895,7 @@
         <v>529138</v>
       </c>
       <c r="D170">
-        <v>0.9755734798861544</v>
+        <v>0.97557347988615439</v>
       </c>
       <c r="E170" t="s">
         <v>178</v>
@@ -6879,13 +6910,13 @@
         <v>116.7490631</v>
       </c>
       <c r="I170">
-        <v>38.26459654</v>
+        <v>38.264596539999999</v>
       </c>
       <c r="J170" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -6896,7 +6927,7 @@
         <v>1270231</v>
       </c>
       <c r="D171">
-        <v>0.9756933975001396</v>
+        <v>0.97569339750013961</v>
       </c>
       <c r="E171" t="s">
         <v>179</v>
@@ -6911,13 +6942,13 @@
         <v>114.4402371</v>
       </c>
       <c r="I171">
-        <v>38.13159084</v>
+        <v>38.131590840000001</v>
       </c>
       <c r="J171" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -6928,7 +6959,7 @@
         <v>336372</v>
       </c>
       <c r="D172">
-        <v>0.9732736375203644</v>
+        <v>0.97327363752036444</v>
       </c>
       <c r="E172" t="s">
         <v>180</v>
@@ -6940,16 +6971,16 @@
         <v>346</v>
       </c>
       <c r="H172">
-        <v>119.1839067</v>
+        <v>119.18390669999999</v>
       </c>
       <c r="I172">
-        <v>40.08709955</v>
+        <v>40.087099549999998</v>
       </c>
       <c r="J172" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -6960,7 +6991,7 @@
         <v>271716</v>
       </c>
       <c r="D173">
-        <v>0.9787903546349864</v>
+        <v>0.97879035463498643</v>
       </c>
       <c r="E173" t="s">
         <v>181</v>
@@ -6975,13 +7006,13 @@
         <v>115.8239009</v>
       </c>
       <c r="I173">
-        <v>37.76137575</v>
+        <v>37.761375749999999</v>
       </c>
       <c r="J173" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -6992,7 +7023,7 @@
         <v>412962</v>
       </c>
       <c r="D174">
-        <v>0.979453315317148</v>
+        <v>0.97945331531714797</v>
       </c>
       <c r="E174" t="s">
         <v>182</v>
@@ -7004,7 +7035,7 @@
         <v>346</v>
       </c>
       <c r="H174">
-        <v>114.8153213</v>
+        <v>114.81532129999999</v>
       </c>
       <c r="I174">
         <v>37.21273351</v>
@@ -7013,7 +7044,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -7024,7 +7055,7 @@
         <v>535820</v>
       </c>
       <c r="D175">
-        <v>0.97693255197641</v>
+        <v>0.97693255197641005</v>
       </c>
       <c r="E175" t="s">
         <v>183</v>
@@ -7039,13 +7070,13 @@
         <v>114.5430155</v>
       </c>
       <c r="I175">
-        <v>36.55331222</v>
+        <v>36.553312220000002</v>
       </c>
       <c r="J175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -7056,7 +7087,7 @@
         <v>136757</v>
       </c>
       <c r="D176">
-        <v>0.9797524075550064</v>
+        <v>0.97975240755500637</v>
       </c>
       <c r="E176" t="s">
         <v>184</v>
@@ -7071,13 +7102,13 @@
         <v>111.103953</v>
       </c>
       <c r="I176">
-        <v>34.35985068</v>
+        <v>34.359850680000001</v>
       </c>
       <c r="J176" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -7088,7 +7119,7 @@
         <v>415726</v>
       </c>
       <c r="D177">
-        <v>0.9806146356013336</v>
+        <v>0.98061463560133355</v>
       </c>
       <c r="E177" t="s">
         <v>185</v>
@@ -7100,16 +7131,16 @@
         <v>346</v>
       </c>
       <c r="H177">
-        <v>114.8832978</v>
+        <v>114.88329779999999</v>
       </c>
       <c r="I177">
-        <v>32.08176663</v>
+        <v>32.081766629999997</v>
       </c>
       <c r="J177" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -7120,7 +7151,7 @@
         <v>491513</v>
       </c>
       <c r="D178">
-        <v>0.9797116251248696</v>
+        <v>0.97971162512486965</v>
       </c>
       <c r="E178" t="s">
         <v>186</v>
@@ -7132,16 +7163,16 @@
         <v>346</v>
       </c>
       <c r="H178">
-        <v>112.2857591</v>
+        <v>112.28575910000001</v>
       </c>
       <c r="I178">
-        <v>33.04342352</v>
+        <v>33.043423519999997</v>
       </c>
       <c r="J178" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -7152,7 +7183,7 @@
         <v>428532</v>
       </c>
       <c r="D179">
-        <v>0.98283908786275</v>
+        <v>0.98283908786274998</v>
       </c>
       <c r="E179" t="s">
         <v>187</v>
@@ -7173,7 +7204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -7184,7 +7215,7 @@
         <v>419280</v>
       </c>
       <c r="D180">
-        <v>0.9815970234688036</v>
+        <v>0.98159702346880362</v>
       </c>
       <c r="E180" t="s">
         <v>188</v>
@@ -7196,16 +7227,16 @@
         <v>346</v>
       </c>
       <c r="H180">
-        <v>115.7000885</v>
+        <v>115.70008850000001</v>
       </c>
       <c r="I180">
-        <v>34.28896659</v>
+        <v>34.288966590000001</v>
       </c>
       <c r="J180" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -7216,7 +7247,7 @@
         <v>323457</v>
       </c>
       <c r="D181">
-        <v>0.9806589438472502</v>
+        <v>0.98065894384725016</v>
       </c>
       <c r="E181" t="s">
         <v>189</v>
@@ -7228,16 +7259,16 @@
         <v>346</v>
       </c>
       <c r="H181">
-        <v>114.3542936</v>
+        <v>114.35429360000001</v>
       </c>
       <c r="I181">
-        <v>35.87710753</v>
+        <v>35.877107530000004</v>
       </c>
       <c r="J181" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -7248,7 +7279,7 @@
         <v>287640</v>
       </c>
       <c r="D182">
-        <v>0.9791718815185648</v>
+        <v>0.97917188151856482</v>
       </c>
       <c r="E182" t="s">
         <v>190</v>
@@ -7263,13 +7294,13 @@
         <v>113.0122368</v>
       </c>
       <c r="I182">
-        <v>33.79528117</v>
+        <v>33.795281170000003</v>
       </c>
       <c r="J182" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -7280,7 +7311,7 @@
         <v>313168</v>
       </c>
       <c r="D183">
-        <v>0.980761125019159</v>
+        <v>0.98076112501915902</v>
       </c>
       <c r="E183" t="s">
         <v>191</v>
@@ -7295,13 +7326,13 @@
         <v>114.5353417</v>
       </c>
       <c r="I183">
-        <v>34.60455396</v>
+        <v>34.604553959999997</v>
       </c>
       <c r="J183" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -7333,7 +7364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -7344,7 +7375,7 @@
         <v>580566</v>
       </c>
       <c r="D185">
-        <v>0.9783504373318452</v>
+        <v>0.97835043733184524</v>
       </c>
       <c r="E185" t="s">
         <v>193</v>
@@ -7359,13 +7390,13 @@
         <v>112.0293745</v>
       </c>
       <c r="I185">
-        <v>34.29015318</v>
+        <v>34.290153179999997</v>
       </c>
       <c r="J185" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -7376,7 +7407,7 @@
         <v>171812</v>
       </c>
       <c r="D186">
-        <v>0.9795823341792192</v>
+        <v>0.97958233417921925</v>
       </c>
       <c r="E186" t="s">
         <v>194</v>
@@ -7391,13 +7422,13 @@
         <v>113.8996087</v>
       </c>
       <c r="I186">
-        <v>33.65490507</v>
+        <v>33.654905069999998</v>
       </c>
       <c r="J186" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -7420,16 +7451,16 @@
         <v>346</v>
       </c>
       <c r="H187">
-        <v>115.2779497</v>
+        <v>115.27794969999999</v>
       </c>
       <c r="I187">
-        <v>35.80784827</v>
+        <v>35.807848270000001</v>
       </c>
       <c r="J187" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -7440,7 +7471,7 @@
         <v>278534</v>
       </c>
       <c r="D188">
-        <v>0.9795428924296496</v>
+        <v>0.97954289242964965</v>
       </c>
       <c r="E188" t="s">
         <v>196</v>
@@ -7452,16 +7483,16 @@
         <v>346</v>
       </c>
       <c r="H188">
-        <v>112.8933063</v>
+        <v>112.89330630000001</v>
       </c>
       <c r="I188">
-        <v>35.11036608</v>
+        <v>35.110366079999999</v>
       </c>
       <c r="J188" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -7472,7 +7503,7 @@
         <v>278441</v>
       </c>
       <c r="D189">
-        <v>0.9792415628445524</v>
+        <v>0.97924156284455244</v>
       </c>
       <c r="E189" t="s">
         <v>197</v>
@@ -7487,13 +7518,13 @@
         <v>113.7092459</v>
       </c>
       <c r="I189">
-        <v>34.07237613</v>
+        <v>34.072376130000002</v>
       </c>
       <c r="J189" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -7504,7 +7535,7 @@
         <v>2011725</v>
       </c>
       <c r="D190">
-        <v>0.976181635163852</v>
+        <v>0.97618163516385204</v>
       </c>
       <c r="E190" t="s">
         <v>198</v>
@@ -7519,13 +7550,13 @@
         <v>113.469807</v>
       </c>
       <c r="I190">
-        <v>34.62733778</v>
+        <v>34.627337779999998</v>
       </c>
       <c r="J190" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -7536,7 +7567,7 @@
         <v>381747</v>
       </c>
       <c r="D191">
-        <v>0.9822866977343634</v>
+        <v>0.98228669773436339</v>
       </c>
       <c r="E191" t="s">
         <v>199</v>
@@ -7548,7 +7579,7 @@
         <v>346</v>
       </c>
       <c r="H191">
-        <v>114.1510434</v>
+        <v>114.15104340000001</v>
       </c>
       <c r="I191">
         <v>32.92304481</v>
@@ -7557,7 +7588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -7568,7 +7599,7 @@
         <v>98290</v>
       </c>
       <c r="D192">
-        <v>0.9817275409502492</v>
+        <v>0.98172754095024917</v>
       </c>
       <c r="E192" t="s">
         <v>200</v>
@@ -7580,16 +7611,16 @@
         <v>346</v>
       </c>
       <c r="H192">
-        <v>114.3095257</v>
+        <v>114.30952569999999</v>
       </c>
       <c r="I192">
-        <v>35.72276298</v>
+        <v>35.722762979999999</v>
       </c>
       <c r="J192" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -7600,7 +7631,7 @@
         <v>206535</v>
       </c>
       <c r="D193">
-        <v>0.9730699397196602</v>
+        <v>0.97306993971966016</v>
       </c>
       <c r="E193" t="s">
         <v>201</v>
@@ -7621,7 +7652,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -7632,7 +7663,7 @@
         <v>643824</v>
       </c>
       <c r="D194">
-        <v>0.9727720619299683</v>
+        <v>0.97277206192996835</v>
       </c>
       <c r="E194" t="s">
         <v>202</v>
@@ -7647,13 +7678,13 @@
         <v>121.1010596</v>
       </c>
       <c r="I194">
-        <v>28.77733897</v>
+        <v>28.777338969999999</v>
       </c>
       <c r="J194" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -7664,7 +7695,7 @@
         <v>749490</v>
       </c>
       <c r="D195">
-        <v>0.9660475790204004</v>
+        <v>0.96604757902040039</v>
       </c>
       <c r="E195" t="s">
         <v>203</v>
@@ -7685,7 +7716,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -7696,7 +7727,7 @@
         <v>1260155</v>
       </c>
       <c r="D196">
-        <v>0.9695164483734144</v>
+        <v>0.96951644837341444</v>
       </c>
       <c r="E196" t="s">
         <v>204</v>
@@ -7717,7 +7748,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -7728,7 +7759,7 @@
         <v>2416790</v>
       </c>
       <c r="D197">
-        <v>0.9625209472068322</v>
+        <v>0.96252094720683223</v>
       </c>
       <c r="E197" t="s">
         <v>205</v>
@@ -7743,13 +7774,13 @@
         <v>119.4688242</v>
       </c>
       <c r="I197">
-        <v>29.89988923</v>
+        <v>29.899889229999999</v>
       </c>
       <c r="J197" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -7760,7 +7791,7 @@
         <v>1112183</v>
       </c>
       <c r="D198">
-        <v>0.9695787473824002</v>
+        <v>0.96957874738240024</v>
       </c>
       <c r="E198" t="s">
         <v>206</v>
@@ -7772,16 +7803,16 @@
         <v>346</v>
       </c>
       <c r="H198">
-        <v>120.4308627</v>
+        <v>120.43086270000001</v>
       </c>
       <c r="I198">
-        <v>27.90364982</v>
+        <v>27.903649819999998</v>
       </c>
       <c r="J198" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -7792,7 +7823,7 @@
         <v>391892</v>
       </c>
       <c r="D199">
-        <v>0.9671414573402876</v>
+        <v>0.96714145734028756</v>
       </c>
       <c r="E199" t="s">
         <v>207</v>
@@ -7807,13 +7838,13 @@
         <v>119.8682386</v>
       </c>
       <c r="I199">
-        <v>30.74448199</v>
+        <v>30.744481990000001</v>
       </c>
       <c r="J199" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -7839,13 +7870,13 @@
         <v>120.6317962</v>
       </c>
       <c r="I200">
-        <v>29.71940125</v>
+        <v>29.719401250000001</v>
       </c>
       <c r="J200" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -7856,7 +7887,7 @@
         <v>167719</v>
       </c>
       <c r="D201">
-        <v>0.9696218079048884</v>
+        <v>0.96962180790488839</v>
       </c>
       <c r="E201" t="s">
         <v>209</v>
@@ -7871,13 +7902,13 @@
         <v>122.1873011</v>
       </c>
       <c r="I201">
-        <v>30.08805463</v>
+        <v>30.088054629999998</v>
       </c>
       <c r="J201" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -7888,7 +7919,7 @@
         <v>174378</v>
       </c>
       <c r="D202">
-        <v>0.9708678847102272</v>
+        <v>0.97086788471022722</v>
       </c>
       <c r="E202" t="s">
         <v>210</v>
@@ -7903,13 +7934,13 @@
         <v>118.6745852</v>
       </c>
       <c r="I202">
-        <v>28.93427537</v>
+        <v>28.934275370000002</v>
       </c>
       <c r="J202" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -7920,7 +7951,7 @@
         <v>816138</v>
       </c>
       <c r="D203">
-        <v>0.9714643846996464</v>
+        <v>0.97146438469964635</v>
       </c>
       <c r="E203" t="s">
         <v>211</v>
@@ -7935,13 +7966,13 @@
         <v>119.9524905</v>
       </c>
       <c r="I203">
-        <v>29.11658192</v>
+        <v>29.116581920000002</v>
       </c>
       <c r="J203" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -7967,13 +7998,13 @@
         <v>110.280715</v>
       </c>
       <c r="I204">
-        <v>18.83545499</v>
+        <v>18.835454989999999</v>
       </c>
       <c r="J204" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -7984,7 +8015,7 @@
         <v>166714</v>
       </c>
       <c r="D205">
-        <v>0.9477488393296304</v>
+        <v>0.94774883932963039</v>
       </c>
       <c r="E205" t="s">
         <v>213</v>
@@ -7999,13 +8030,13 @@
         <v>109.4184206</v>
       </c>
       <c r="I205">
-        <v>18.39377265</v>
+        <v>18.393772649999999</v>
       </c>
       <c r="J205" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -8028,16 +8059,16 @@
         <v>346</v>
       </c>
       <c r="H206">
-        <v>108.8400646</v>
+        <v>108.84006460000001</v>
       </c>
       <c r="I206">
-        <v>18.99371394</v>
+        <v>18.993713939999999</v>
       </c>
       <c r="J206" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>215</v>
       </c>
@@ -8069,7 +8100,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -8080,7 +8111,7 @@
         <v>52581</v>
       </c>
       <c r="D208">
-        <v>0.954127916928168</v>
+        <v>0.95412791692816801</v>
       </c>
       <c r="E208" t="s">
         <v>216</v>
@@ -8095,13 +8126,13 @@
         <v>109.403966</v>
       </c>
       <c r="I208">
-        <v>19.56665127</v>
+        <v>19.566651270000001</v>
       </c>
       <c r="J208" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -8133,7 +8164,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>218</v>
       </c>
@@ -8144,7 +8175,7 @@
         <v>416528</v>
       </c>
       <c r="D210">
-        <v>0.9501017938770022</v>
+        <v>0.95010179387700222</v>
       </c>
       <c r="E210" t="s">
         <v>218</v>
@@ -8159,13 +8190,13 @@
         <v>110.4209235</v>
       </c>
       <c r="I210">
-        <v>19.8309224</v>
+        <v>19.830922399999999</v>
       </c>
       <c r="J210" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>219</v>
       </c>
@@ -8191,13 +8222,13 @@
         <v>110.4028228</v>
       </c>
       <c r="I211">
-        <v>19.21027708</v>
+        <v>19.210277080000001</v>
       </c>
       <c r="J211" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>220</v>
       </c>
@@ -8223,13 +8254,13 @@
         <v>113.3754345</v>
       </c>
       <c r="I212">
-        <v>30.29042631</v>
+        <v>30.290426310000001</v>
       </c>
       <c r="J212" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -8240,7 +8271,7 @@
         <v>230410</v>
       </c>
       <c r="D213">
-        <v>0.9759298641552016</v>
+        <v>0.97592986415520155</v>
       </c>
       <c r="E213" t="s">
         <v>221</v>
@@ -8252,16 +8283,16 @@
         <v>346</v>
       </c>
       <c r="H213">
-        <v>110.4399352</v>
+        <v>110.43993519999999</v>
       </c>
       <c r="I213">
-        <v>32.45573228</v>
+        <v>32.455732279999999</v>
       </c>
       <c r="J213" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -8272,7 +8303,7 @@
         <v>197350</v>
       </c>
       <c r="D214">
-        <v>0.9779984798581201</v>
+        <v>0.97799847985812005</v>
       </c>
       <c r="E214" t="s">
         <v>222</v>
@@ -8284,7 +8315,7 @@
         <v>346</v>
       </c>
       <c r="H214">
-        <v>114.1751731</v>
+        <v>114.17517309999999</v>
       </c>
       <c r="I214">
         <v>29.62364693</v>
@@ -8293,7 +8324,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -8316,7 +8347,7 @@
         <v>346</v>
       </c>
       <c r="H215">
-        <v>113.1137711</v>
+        <v>113.11377109999999</v>
       </c>
       <c r="I215">
         <v>30.64531272</v>
@@ -8325,7 +8356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -8336,7 +8367,7 @@
         <v>292758</v>
       </c>
       <c r="D216">
-        <v>0.979344714747334</v>
+        <v>0.97934471474733398</v>
       </c>
       <c r="E216" t="s">
         <v>224</v>
@@ -8357,7 +8388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>225</v>
       </c>
@@ -8389,7 +8420,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -8400,7 +8431,7 @@
         <v>2465532</v>
       </c>
       <c r="D218">
-        <v>0.9715635408504129</v>
+        <v>0.97156354085041285</v>
       </c>
       <c r="E218" t="s">
         <v>226</v>
@@ -8415,13 +8446,13 @@
         <v>114.3414784</v>
       </c>
       <c r="I218">
-        <v>30.6229223</v>
+        <v>30.622922299999999</v>
       </c>
       <c r="J218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -8447,13 +8478,13 @@
         <v>112.7566364</v>
       </c>
       <c r="I219">
-        <v>30.33939635</v>
+        <v>30.339396350000001</v>
       </c>
       <c r="J219" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -8464,7 +8495,7 @@
         <v>363940</v>
       </c>
       <c r="D220">
-        <v>0.9768038687695774</v>
+        <v>0.97680386876957737</v>
       </c>
       <c r="E220" t="s">
         <v>228</v>
@@ -8479,13 +8510,13 @@
         <v>112.5702512</v>
       </c>
       <c r="I220">
-        <v>29.99666313</v>
+        <v>29.996663130000002</v>
       </c>
       <c r="J220" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -8496,7 +8527,7 @@
         <v>182093</v>
       </c>
       <c r="D221">
-        <v>0.9756168551234808</v>
+        <v>0.97561685512348084</v>
       </c>
       <c r="E221" t="s">
         <v>229</v>
@@ -8508,16 +8539,16 @@
         <v>346</v>
       </c>
       <c r="H221">
-        <v>112.6072325</v>
+        <v>112.60723249999999</v>
       </c>
       <c r="I221">
-        <v>31.06848211</v>
+        <v>31.068482110000001</v>
       </c>
       <c r="J221" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -8528,7 +8559,7 @@
         <v>355168</v>
       </c>
       <c r="D222">
-        <v>0.9765829128750336</v>
+        <v>0.97658291287503363</v>
       </c>
       <c r="E222" t="s">
         <v>230</v>
@@ -8543,13 +8574,13 @@
         <v>111.9344165</v>
       </c>
       <c r="I222">
-        <v>31.93092434</v>
+        <v>31.930924340000001</v>
       </c>
       <c r="J222" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>231</v>
       </c>
@@ -8560,7 +8591,7 @@
         <v>100943</v>
       </c>
       <c r="D223">
-        <v>0.9786215983277692</v>
+        <v>0.97862159832776918</v>
       </c>
       <c r="E223" t="s">
         <v>231</v>
@@ -8575,13 +8606,13 @@
         <v>114.7553195</v>
       </c>
       <c r="I223">
-        <v>30.32728729</v>
+        <v>30.327287290000001</v>
       </c>
       <c r="J223" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>232</v>
       </c>
@@ -8592,7 +8623,7 @@
         <v>123441</v>
       </c>
       <c r="D224">
-        <v>0.9801767646081934</v>
+        <v>0.98017676460819336</v>
       </c>
       <c r="E224" t="s">
         <v>232</v>
@@ -8604,16 +8635,16 @@
         <v>346</v>
       </c>
       <c r="H224">
-        <v>113.4238542</v>
+        <v>113.42385419999999</v>
       </c>
       <c r="I224">
-        <v>31.82785744</v>
+        <v>31.827857439999999</v>
       </c>
       <c r="J224" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>233</v>
       </c>
@@ -8624,7 +8655,7 @@
         <v>375374</v>
       </c>
       <c r="D225">
-        <v>0.9801131671346444</v>
+        <v>0.98011316713464436</v>
       </c>
       <c r="E225" t="s">
         <v>233</v>
@@ -8645,7 +8676,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>234</v>
       </c>
@@ -8656,7 +8687,7 @@
         <v>223821</v>
       </c>
       <c r="D226">
-        <v>0.9782683483676688</v>
+        <v>0.97826834836766885</v>
       </c>
       <c r="E226" t="s">
         <v>234</v>
@@ -8671,13 +8702,13 @@
         <v>115.0250611</v>
       </c>
       <c r="I226">
-        <v>29.92696841</v>
+        <v>29.926968410000001</v>
       </c>
       <c r="J226" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -8688,7 +8719,7 @@
         <v>215694</v>
       </c>
       <c r="D227">
-        <v>0.9801802553617625</v>
+        <v>0.98018025536176245</v>
       </c>
       <c r="E227" t="s">
         <v>235</v>
@@ -8700,16 +8731,16 @@
         <v>346</v>
       </c>
       <c r="H227">
-        <v>111.6143073</v>
+        <v>111.61430729999999</v>
       </c>
       <c r="I227">
-        <v>27.73921929</v>
+        <v>27.739219290000001</v>
       </c>
       <c r="J227" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>236</v>
       </c>
@@ -8720,7 +8751,7 @@
         <v>373145</v>
       </c>
       <c r="D228">
-        <v>0.9787964464216324</v>
+        <v>0.97879644642163244</v>
       </c>
       <c r="E228" t="s">
         <v>236</v>
@@ -8735,13 +8766,13 @@
         <v>113.2554097</v>
       </c>
       <c r="I228">
-        <v>29.06507552</v>
+        <v>29.065075520000001</v>
       </c>
       <c r="J228" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>237</v>
       </c>
@@ -8752,7 +8783,7 @@
         <v>345068</v>
       </c>
       <c r="D229">
-        <v>0.9761525264585532</v>
+        <v>0.97615252645855322</v>
       </c>
       <c r="E229" t="s">
         <v>237</v>
@@ -8764,16 +8795,16 @@
         <v>346</v>
       </c>
       <c r="H229">
-        <v>111.5213156</v>
+        <v>111.52131559999999</v>
       </c>
       <c r="I229">
-        <v>29.29858671</v>
+        <v>29.298586709999999</v>
       </c>
       <c r="J229" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>238</v>
       </c>
@@ -8799,13 +8830,13 @@
         <v>110.526627</v>
       </c>
       <c r="I230">
-        <v>29.3927384</v>
+        <v>29.392738399999999</v>
       </c>
       <c r="J230" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -8816,7 +8847,7 @@
         <v>246287</v>
       </c>
       <c r="D231">
-        <v>0.9780703000970412</v>
+        <v>0.97807030009704121</v>
       </c>
       <c r="E231" t="s">
         <v>239</v>
@@ -8837,7 +8868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -8848,7 +8879,7 @@
         <v>339836</v>
       </c>
       <c r="D232">
-        <v>0.9769947857201708</v>
+        <v>0.97699478572017084</v>
       </c>
       <c r="E232" t="s">
         <v>240</v>
@@ -8863,13 +8894,13 @@
         <v>113.5181212</v>
       </c>
       <c r="I232">
-        <v>27.11895117</v>
+        <v>27.118951169999999</v>
       </c>
       <c r="J232" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>241</v>
       </c>
@@ -8880,7 +8911,7 @@
         <v>260109</v>
       </c>
       <c r="D233">
-        <v>0.980377457142967</v>
+        <v>0.98037745714296698</v>
       </c>
       <c r="E233" t="s">
         <v>241</v>
@@ -8901,7 +8932,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -8912,7 +8943,7 @@
         <v>254348</v>
       </c>
       <c r="D234">
-        <v>0.9788360828471228</v>
+        <v>0.97883608284712276</v>
       </c>
       <c r="E234" t="s">
         <v>242</v>
@@ -8924,7 +8955,7 @@
         <v>346</v>
       </c>
       <c r="H234">
-        <v>112.6026484</v>
+        <v>112.60264840000001</v>
       </c>
       <c r="I234">
         <v>27.73187081</v>
@@ -8933,7 +8964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>243</v>
       </c>
@@ -8944,7 +8975,7 @@
         <v>236093</v>
       </c>
       <c r="D235">
-        <v>0.9802831934873122</v>
+        <v>0.98028319348731219</v>
       </c>
       <c r="E235" t="s">
         <v>243</v>
@@ -8956,16 +8987,16 @@
         <v>346</v>
       </c>
       <c r="H235">
-        <v>111.9474073</v>
+        <v>111.94740729999999</v>
       </c>
       <c r="I235">
-        <v>28.57426944</v>
+        <v>28.574269439999998</v>
       </c>
       <c r="J235" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -8976,7 +9007,7 @@
         <v>416424</v>
       </c>
       <c r="D236">
-        <v>0.979984342881294</v>
+        <v>0.97998434288129399</v>
       </c>
       <c r="E236" t="s">
         <v>244</v>
@@ -8988,16 +9019,16 @@
         <v>346</v>
       </c>
       <c r="H236">
-        <v>112.5736255</v>
+        <v>112.57362550000001</v>
       </c>
       <c r="I236">
-        <v>26.79406074</v>
+        <v>26.794060739999999</v>
       </c>
       <c r="J236" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -9029,7 +9060,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -9040,7 +9071,7 @@
         <v>276888</v>
       </c>
       <c r="D238">
-        <v>0.9789120510820259</v>
+        <v>0.97891205108202595</v>
       </c>
       <c r="E238" t="s">
         <v>246</v>
@@ -9055,13 +9086,13 @@
         <v>113.1360439</v>
       </c>
       <c r="I238">
-        <v>25.81565514</v>
+        <v>25.815655140000001</v>
       </c>
       <c r="J238" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>247</v>
       </c>
@@ -9072,7 +9103,7 @@
         <v>1771161</v>
       </c>
       <c r="D239">
-        <v>0.9745116338943778</v>
+        <v>0.97451163389437778</v>
       </c>
       <c r="E239" t="s">
         <v>247</v>
@@ -9084,16 +9115,16 @@
         <v>348</v>
       </c>
       <c r="H239">
-        <v>113.1517852</v>
+        <v>113.15178520000001</v>
       </c>
       <c r="I239">
-        <v>28.22811967</v>
+        <v>28.228119670000002</v>
       </c>
       <c r="J239" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>248</v>
       </c>
@@ -9104,7 +9135,7 @@
         <v>484067</v>
       </c>
       <c r="D240">
-        <v>0.9180795220496336</v>
+        <v>0.91807952204963361</v>
       </c>
       <c r="E240" t="s">
         <v>248</v>
@@ -9119,13 +9150,13 @@
         <v>103.6391783</v>
       </c>
       <c r="I240">
-        <v>36.35962647</v>
+        <v>36.359626470000002</v>
       </c>
       <c r="J240" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>249</v>
       </c>
@@ -9136,7 +9167,7 @@
         <v>31649</v>
       </c>
       <c r="D241">
-        <v>0.9168378147808778</v>
+        <v>0.91683781478087778</v>
       </c>
       <c r="E241" t="s">
         <v>249</v>
@@ -9148,16 +9179,16 @@
         <v>346</v>
       </c>
       <c r="H241">
-        <v>98.20047233</v>
+        <v>98.200472329999997</v>
       </c>
       <c r="I241">
-        <v>39.81436096</v>
+        <v>39.814360960000002</v>
       </c>
       <c r="J241" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -9168,7 +9199,7 @@
         <v>112199</v>
       </c>
       <c r="D242">
-        <v>0.9343398782520344</v>
+        <v>0.93433987825203435</v>
       </c>
       <c r="E242" t="s">
         <v>250</v>
@@ -9180,16 +9211,16 @@
         <v>346</v>
       </c>
       <c r="H242">
-        <v>105.7361012</v>
+        <v>105.73610119999999</v>
       </c>
       <c r="I242">
-        <v>34.6482842</v>
+        <v>34.648284199999999</v>
       </c>
       <c r="J242" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>251</v>
       </c>
@@ -9200,7 +9231,7 @@
         <v>74110</v>
       </c>
       <c r="D243">
-        <v>0.9327756038321414</v>
+        <v>0.93277560383214142</v>
       </c>
       <c r="E243" t="s">
         <v>251</v>
@@ -9215,13 +9246,13 @@
         <v>104.450101</v>
       </c>
       <c r="I243">
-        <v>35.11719873</v>
+        <v>35.117198729999998</v>
       </c>
       <c r="J243" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -9232,7 +9263,7 @@
         <v>75001</v>
       </c>
       <c r="D244">
-        <v>0.9290142798096024</v>
+        <v>0.92901427980960238</v>
       </c>
       <c r="E244" t="s">
         <v>252</v>
@@ -9247,13 +9278,13 @@
         <v>106.6445439</v>
       </c>
       <c r="I244">
-        <v>35.30805837</v>
+        <v>35.308058369999998</v>
       </c>
       <c r="J244" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>253</v>
       </c>
@@ -9264,7 +9295,7 @@
         <v>88280</v>
       </c>
       <c r="D245">
-        <v>0.9296782963298597</v>
+        <v>0.92967829632985965</v>
       </c>
       <c r="E245" t="s">
         <v>253</v>
@@ -9279,13 +9310,13 @@
         <v>107.5938005</v>
       </c>
       <c r="I245">
-        <v>36.16337578</v>
+        <v>36.163375780000003</v>
       </c>
       <c r="J245" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>254</v>
       </c>
@@ -9296,7 +9327,7 @@
         <v>59779</v>
       </c>
       <c r="D246">
-        <v>0.9313638568728148</v>
+        <v>0.93136385687281475</v>
       </c>
       <c r="E246" t="s">
         <v>254</v>
@@ -9308,16 +9339,16 @@
         <v>346</v>
       </c>
       <c r="H246">
-        <v>99.87731431</v>
+        <v>99.877314310000003</v>
       </c>
       <c r="I246">
-        <v>38.94458525</v>
+        <v>38.944585250000003</v>
       </c>
       <c r="J246" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>255</v>
       </c>
@@ -9328,7 +9359,7 @@
         <v>59527</v>
       </c>
       <c r="D247">
-        <v>0.9292421926184756</v>
+        <v>0.92924219261847563</v>
       </c>
       <c r="E247" t="s">
         <v>255</v>
@@ -9343,13 +9374,13 @@
         <v>103.0581042</v>
       </c>
       <c r="I247">
-        <v>38.16951354</v>
+        <v>38.169513539999997</v>
       </c>
       <c r="J247" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -9360,7 +9391,7 @@
         <v>63526</v>
       </c>
       <c r="D248">
-        <v>0.9209614960803448</v>
+        <v>0.92096149608034483</v>
       </c>
       <c r="E248" t="s">
         <v>256</v>
@@ -9375,13 +9406,13 @@
         <v>104.6280812</v>
       </c>
       <c r="I248">
-        <v>36.6115386</v>
+        <v>36.611538600000003</v>
       </c>
       <c r="J248" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>257</v>
       </c>
@@ -9392,7 +9423,7 @@
         <v>72098</v>
       </c>
       <c r="D249">
-        <v>0.9148520069904852</v>
+        <v>0.91485200699048519</v>
       </c>
       <c r="E249" t="s">
         <v>257</v>
@@ -9404,16 +9435,16 @@
         <v>346</v>
       </c>
       <c r="H249">
-        <v>96.02814228</v>
+        <v>96.028142279999997</v>
       </c>
       <c r="I249">
-        <v>40.23975649</v>
+        <v>40.239756489999998</v>
       </c>
       <c r="J249" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -9439,13 +9470,13 @@
         <v>102.0709634</v>
       </c>
       <c r="I250">
-        <v>38.43469698</v>
+        <v>38.434696979999998</v>
       </c>
       <c r="J250" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -9456,7 +9487,7 @@
         <v>74681</v>
       </c>
       <c r="D251">
-        <v>0.9336243488973101</v>
+        <v>0.93362434889731005</v>
       </c>
       <c r="E251" t="s">
         <v>259</v>
@@ -9468,16 +9499,16 @@
         <v>346</v>
       </c>
       <c r="H251">
-        <v>105.2182053</v>
+        <v>105.21820529999999</v>
       </c>
       <c r="I251">
-        <v>33.59532306</v>
+        <v>33.595323059999998</v>
       </c>
       <c r="J251" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>260</v>
       </c>
@@ -9500,7 +9531,7 @@
         <v>346</v>
       </c>
       <c r="H252">
-        <v>117.398811</v>
+        <v>117.39881099999999</v>
       </c>
       <c r="I252">
         <v>26.29879729</v>
@@ -9509,7 +9540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>261</v>
       </c>
@@ -9520,7 +9551,7 @@
         <v>271671</v>
       </c>
       <c r="D253">
-        <v>0.9755402674558564</v>
+        <v>0.97554026745585642</v>
       </c>
       <c r="E253" t="s">
         <v>261</v>
@@ -9532,16 +9563,16 @@
         <v>346</v>
       </c>
       <c r="H253">
-        <v>118.143516</v>
+        <v>118.14351600000001</v>
       </c>
       <c r="I253">
-        <v>27.33816791</v>
+        <v>27.338167909999999</v>
       </c>
       <c r="J253" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>262</v>
       </c>
@@ -9552,7 +9583,7 @@
         <v>1017549</v>
       </c>
       <c r="D254">
-        <v>0.9696781186950212</v>
+        <v>0.96967811869502119</v>
       </c>
       <c r="E254" t="s">
         <v>262</v>
@@ -9564,16 +9595,16 @@
         <v>346</v>
       </c>
       <c r="H254">
-        <v>118.1160128</v>
+        <v>118.11601279999999</v>
       </c>
       <c r="I254">
-        <v>24.67721777</v>
+        <v>24.677217769999999</v>
       </c>
       <c r="J254" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>263</v>
       </c>
@@ -9584,7 +9615,7 @@
         <v>322424</v>
       </c>
       <c r="D255">
-        <v>0.9773838175818176</v>
+        <v>0.97738381758181758</v>
       </c>
       <c r="E255" t="s">
         <v>263</v>
@@ -9605,7 +9636,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -9616,7 +9647,7 @@
         <v>1083319</v>
       </c>
       <c r="D256">
-        <v>0.9760642986968748</v>
+        <v>0.97606429869687483</v>
       </c>
       <c r="E256" t="s">
         <v>264</v>
@@ -9631,13 +9662,13 @@
         <v>118.2591178</v>
       </c>
       <c r="I256">
-        <v>25.20087043</v>
+        <v>25.200870429999998</v>
       </c>
       <c r="J256" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -9663,13 +9694,13 @@
         <v>117.4404255</v>
       </c>
       <c r="I257">
-        <v>24.36931128</v>
+        <v>24.369311280000002</v>
       </c>
       <c r="J257" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>266</v>
       </c>
@@ -9680,7 +9711,7 @@
         <v>1446405</v>
       </c>
       <c r="D258">
-        <v>0.9729550160570518</v>
+        <v>0.97295501605705181</v>
       </c>
       <c r="E258" t="s">
         <v>266</v>
@@ -9695,13 +9726,13 @@
         <v>119.1586167</v>
       </c>
       <c r="I258">
-        <v>26.06253576</v>
+        <v>26.062535759999999</v>
       </c>
       <c r="J258" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -9712,7 +9743,7 @@
         <v>335748</v>
       </c>
       <c r="D259">
-        <v>0.9765687360758664</v>
+        <v>0.97656873607586636</v>
       </c>
       <c r="E259" t="s">
         <v>267</v>
@@ -9733,7 +9764,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>268</v>
       </c>
@@ -9744,7 +9775,7 @@
         <v>237647</v>
       </c>
       <c r="D260">
-        <v>0.9765744991521036</v>
+        <v>0.97657449915210359</v>
       </c>
       <c r="E260" t="s">
         <v>268</v>
@@ -9765,7 +9796,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>269</v>
       </c>
@@ -9776,7 +9807,7 @@
         <v>7893</v>
       </c>
       <c r="D261">
-        <v>0.835930571392373</v>
+        <v>0.83593057139237303</v>
       </c>
       <c r="E261" t="s">
         <v>269</v>
@@ -9788,16 +9819,16 @@
         <v>346</v>
       </c>
       <c r="H261">
-        <v>92.26510012999999</v>
+        <v>92.265100129999993</v>
       </c>
       <c r="I261">
-        <v>28.30432636</v>
+        <v>28.304326360000001</v>
       </c>
       <c r="J261" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -9829,7 +9860,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>271</v>
       </c>
@@ -9840,7 +9871,7 @@
         <v>8635</v>
       </c>
       <c r="D263">
-        <v>0.8409959467284308</v>
+        <v>0.84099594672843081</v>
       </c>
       <c r="E263" t="s">
         <v>271</v>
@@ -9852,7 +9883,7 @@
         <v>346</v>
       </c>
       <c r="H263">
-        <v>97.02401684</v>
+        <v>97.024016840000002</v>
       </c>
       <c r="I263">
         <v>30.78451621</v>
@@ -9861,7 +9892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>272</v>
       </c>
@@ -9872,7 +9903,7 @@
         <v>11799</v>
       </c>
       <c r="D264">
-        <v>0.8382066276803118</v>
+        <v>0.83820662768031184</v>
       </c>
       <c r="E264" t="s">
         <v>272</v>
@@ -9884,16 +9915,16 @@
         <v>346</v>
       </c>
       <c r="H264">
-        <v>95.22708702</v>
+        <v>95.227087019999999</v>
       </c>
       <c r="I264">
-        <v>29.20534153</v>
+        <v>29.205341529999998</v>
       </c>
       <c r="J264" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -9904,7 +9935,7 @@
         <v>4632</v>
       </c>
       <c r="D265">
-        <v>0.8251295336787565</v>
+        <v>0.82512953367875652</v>
       </c>
       <c r="E265" t="s">
         <v>273</v>
@@ -9916,16 +9947,16 @@
         <v>346</v>
       </c>
       <c r="H265">
-        <v>89.23383962</v>
+        <v>89.233839619999998</v>
       </c>
       <c r="I265">
-        <v>32.74789924</v>
+        <v>32.747899240000002</v>
       </c>
       <c r="J265" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>274</v>
       </c>
@@ -9951,13 +9982,13 @@
         <v>104.8898693</v>
       </c>
       <c r="I266">
-        <v>26.13315779</v>
+        <v>26.133157789999998</v>
       </c>
       <c r="J266" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>275</v>
       </c>
@@ -9968,7 +9999,7 @@
         <v>132604</v>
       </c>
       <c r="D267">
-        <v>0.9685529848270036</v>
+        <v>0.96855298482700358</v>
       </c>
       <c r="E267" t="s">
         <v>275</v>
@@ -9989,7 +10020,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -10000,7 +10031,7 @@
         <v>215420</v>
       </c>
       <c r="D268">
-        <v>0.9691486398663076</v>
+        <v>0.96914863986630762</v>
       </c>
       <c r="E268" t="s">
         <v>276</v>
@@ -10021,7 +10052,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>277</v>
       </c>
@@ -10032,7 +10063,7 @@
         <v>772534</v>
       </c>
       <c r="D269">
-        <v>0.9605195370041966</v>
+        <v>0.96051953700419657</v>
       </c>
       <c r="E269" t="s">
         <v>277</v>
@@ -10044,16 +10075,16 @@
         <v>346</v>
       </c>
       <c r="H269">
-        <v>106.7054276</v>
+        <v>106.70542759999999</v>
       </c>
       <c r="I269">
-        <v>26.84043657</v>
+        <v>26.840436570000001</v>
       </c>
       <c r="J269" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>278</v>
       </c>
@@ -10064,7 +10095,7 @@
         <v>357300</v>
       </c>
       <c r="D270">
-        <v>0.9652532885530368</v>
+        <v>0.96525328855303683</v>
       </c>
       <c r="E270" t="s">
         <v>278</v>
@@ -10079,13 +10110,13 @@
         <v>107.0827693</v>
       </c>
       <c r="I270">
-        <v>28.16753214</v>
+        <v>28.167532139999999</v>
       </c>
       <c r="J270" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>279</v>
       </c>
@@ -10096,7 +10127,7 @@
         <v>160840</v>
       </c>
       <c r="D271">
-        <v>0.972177319074857</v>
+        <v>0.97217731907485705</v>
       </c>
       <c r="E271" t="s">
         <v>279</v>
@@ -10111,13 +10142,13 @@
         <v>108.5412314</v>
       </c>
       <c r="I271">
-        <v>27.97073801</v>
+        <v>27.970738010000002</v>
       </c>
       <c r="J271" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>280</v>
       </c>
@@ -10128,7 +10159,7 @@
         <v>180891</v>
       </c>
       <c r="D272">
-        <v>0.972430911432852</v>
+        <v>0.97243091143285199</v>
       </c>
       <c r="E272" t="s">
         <v>280</v>
@@ -10143,13 +10174,13 @@
         <v>124.4016989</v>
       </c>
       <c r="I272">
-        <v>40.54685802</v>
+        <v>40.546858020000002</v>
       </c>
       <c r="J272" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>281</v>
       </c>
@@ -10160,7 +10191,7 @@
         <v>1092592</v>
       </c>
       <c r="D273">
-        <v>0.9672576771567064</v>
+        <v>0.96725767715670641</v>
       </c>
       <c r="E273" t="s">
         <v>281</v>
@@ -10175,13 +10206,13 @@
         <v>122.2120159</v>
       </c>
       <c r="I273">
-        <v>39.60229249</v>
+        <v>39.602292490000004</v>
       </c>
       <c r="J273" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>282</v>
       </c>
@@ -10192,7 +10223,7 @@
         <v>201554</v>
       </c>
       <c r="D274">
-        <v>0.9701816882820484</v>
+        <v>0.97018168828204843</v>
       </c>
       <c r="E274" t="s">
         <v>282</v>
@@ -10207,13 +10238,13 @@
         <v>124.6556681</v>
       </c>
       <c r="I274">
-        <v>41.83372502</v>
+        <v>41.833725020000003</v>
       </c>
       <c r="J274" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>283</v>
       </c>
@@ -10224,7 +10255,7 @@
         <v>177117</v>
       </c>
       <c r="D275">
-        <v>0.970928821061784</v>
+        <v>0.97092882106178402</v>
       </c>
       <c r="E275" t="s">
         <v>283</v>
@@ -10239,13 +10270,13 @@
         <v>120.0127006</v>
       </c>
       <c r="I275">
-        <v>41.50935797</v>
+        <v>41.509357970000003</v>
       </c>
       <c r="J275" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>284</v>
       </c>
@@ -10256,7 +10287,7 @@
         <v>127366</v>
       </c>
       <c r="D276">
-        <v>0.9710676318640769</v>
+        <v>0.97106763186407685</v>
       </c>
       <c r="E276" t="s">
         <v>284</v>
@@ -10271,13 +10302,13 @@
         <v>124.5712365</v>
       </c>
       <c r="I276">
-        <v>41.23029259</v>
+        <v>41.230292589999998</v>
       </c>
       <c r="J276" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>285</v>
       </c>
@@ -10288,7 +10319,7 @@
         <v>1445789</v>
       </c>
       <c r="D277">
-        <v>0.967874980374038</v>
+        <v>0.96787498037403796</v>
       </c>
       <c r="E277" t="s">
         <v>285</v>
@@ -10303,13 +10334,13 @@
         <v>123.1378358</v>
       </c>
       <c r="I277">
-        <v>42.09365977</v>
+        <v>42.093659770000002</v>
       </c>
       <c r="J277" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>286</v>
       </c>
@@ -10320,7 +10351,7 @@
         <v>150922</v>
       </c>
       <c r="D278">
-        <v>0.9682683770424456</v>
+        <v>0.96826837704244562</v>
       </c>
       <c r="E278" t="s">
         <v>286</v>
@@ -10335,13 +10366,13 @@
         <v>122.0023585</v>
       </c>
       <c r="I278">
-        <v>41.0939187</v>
+        <v>41.093918700000003</v>
       </c>
       <c r="J278" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -10352,7 +10383,7 @@
         <v>221807</v>
       </c>
       <c r="D279">
-        <v>0.9735220259054044</v>
+        <v>0.97352202590540438</v>
       </c>
       <c r="E279" t="s">
         <v>287</v>
@@ -10367,13 +10398,13 @@
         <v>122.4663539</v>
       </c>
       <c r="I279">
-        <v>40.39098329</v>
+        <v>40.390983290000001</v>
       </c>
       <c r="J279" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>288</v>
       </c>
@@ -10384,7 +10415,7 @@
         <v>180428</v>
       </c>
       <c r="D280">
-        <v>0.9705866051832308</v>
+        <v>0.97058660518323081</v>
       </c>
       <c r="E280" t="s">
         <v>288</v>
@@ -10399,13 +10430,13 @@
         <v>120.1923549</v>
       </c>
       <c r="I280">
-        <v>40.62465802</v>
+        <v>40.624658019999998</v>
       </c>
       <c r="J280" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>289</v>
       </c>
@@ -10416,7 +10447,7 @@
         <v>137080</v>
       </c>
       <c r="D281">
-        <v>0.9687408812372338</v>
+        <v>0.96874088123723379</v>
       </c>
       <c r="E281" t="s">
         <v>289</v>
@@ -10431,13 +10462,13 @@
         <v>123.2461177</v>
       </c>
       <c r="I281">
-        <v>41.18137516</v>
+        <v>41.181375160000002</v>
       </c>
       <c r="J281" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>290</v>
       </c>
@@ -10448,7 +10479,7 @@
         <v>164973</v>
       </c>
       <c r="D282">
-        <v>0.9747049517193722</v>
+        <v>0.97470495171937221</v>
       </c>
       <c r="E282" t="s">
         <v>290</v>
@@ -10463,13 +10494,13 @@
         <v>124.1715291</v>
       </c>
       <c r="I282">
-        <v>42.64286101</v>
+        <v>42.642861009999997</v>
       </c>
       <c r="J282" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>291</v>
       </c>
@@ -10480,7 +10511,7 @@
         <v>237364</v>
       </c>
       <c r="D283">
-        <v>0.9727970543132068</v>
+        <v>0.97279705431320684</v>
       </c>
       <c r="E283" t="s">
         <v>291</v>
@@ -10495,13 +10526,13 @@
         <v>121.6176248</v>
       </c>
       <c r="I283">
-        <v>41.47264416</v>
+        <v>41.472644160000002</v>
       </c>
       <c r="J283" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -10512,7 +10543,7 @@
         <v>113862</v>
       </c>
       <c r="D284">
-        <v>0.9697616412850644</v>
+        <v>0.96976164128506437</v>
       </c>
       <c r="E284" t="s">
         <v>292</v>
@@ -10527,13 +10558,13 @@
         <v>121.9529904</v>
       </c>
       <c r="I284">
-        <v>42.27933731</v>
+        <v>42.279337310000003</v>
       </c>
       <c r="J284" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -10559,13 +10590,13 @@
         <v>123.0135447</v>
       </c>
       <c r="I285">
-        <v>40.71405031</v>
+        <v>40.714050309999998</v>
       </c>
       <c r="J285" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>294</v>
       </c>
@@ -10576,7 +10607,7 @@
         <v>2821222</v>
       </c>
       <c r="D286">
-        <v>0.9694958425816896</v>
+        <v>0.96949584258168964</v>
       </c>
       <c r="E286" t="s">
         <v>294</v>
@@ -10591,13 +10622,13 @@
         <v>107.8578933</v>
       </c>
       <c r="I286">
-        <v>30.05062153</v>
+        <v>30.050621530000001</v>
       </c>
       <c r="J286" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>295</v>
       </c>
@@ -10608,7 +10639,7 @@
         <v>380309</v>
       </c>
       <c r="D287">
-        <v>0.9749414292062508</v>
+        <v>0.97494142920625082</v>
       </c>
       <c r="E287" t="s">
         <v>295</v>
@@ -10623,13 +10654,13 @@
         <v>108.3916497</v>
       </c>
       <c r="I287">
-        <v>34.78654426</v>
+        <v>34.786544259999999</v>
       </c>
       <c r="J287" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>296</v>
       </c>
@@ -10640,7 +10671,7 @@
         <v>91009</v>
       </c>
       <c r="D288">
-        <v>0.9726730323374612</v>
+        <v>0.97267303233746116</v>
       </c>
       <c r="E288" t="s">
         <v>296</v>
@@ -10652,16 +10683,16 @@
         <v>346</v>
       </c>
       <c r="H288">
-        <v>109.8994284</v>
+        <v>109.89942840000001</v>
       </c>
       <c r="I288">
-        <v>33.64777458</v>
+        <v>33.647774579999997</v>
       </c>
       <c r="J288" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -10687,13 +10718,13 @@
         <v>108.9284353</v>
       </c>
       <c r="I289">
-        <v>32.75667169</v>
+        <v>32.756671689999997</v>
       </c>
       <c r="J289" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>298</v>
       </c>
@@ -10716,16 +10747,16 @@
         <v>346</v>
       </c>
       <c r="H290">
-        <v>107.1993946</v>
+        <v>107.19939460000001</v>
       </c>
       <c r="I290">
-        <v>34.37923806</v>
+        <v>34.379238059999999</v>
       </c>
       <c r="J290" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -10736,7 +10767,7 @@
         <v>186504</v>
       </c>
       <c r="D291">
-        <v>0.9742847338394888</v>
+        <v>0.97428473383948877</v>
       </c>
       <c r="E291" t="s">
         <v>299</v>
@@ -10751,13 +10782,13 @@
         <v>109.3182922</v>
       </c>
       <c r="I291">
-        <v>36.43548548</v>
+        <v>36.435485479999997</v>
       </c>
       <c r="J291" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>300</v>
       </c>
@@ -10768,7 +10799,7 @@
         <v>361779</v>
       </c>
       <c r="D292">
-        <v>0.9787964475549992</v>
+        <v>0.97879644755499917</v>
       </c>
       <c r="E292" t="s">
         <v>300</v>
@@ -10783,13 +10814,13 @@
         <v>109.5499787</v>
       </c>
       <c r="I292">
-        <v>38.0356259</v>
+        <v>38.035625899999999</v>
       </c>
       <c r="J292" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>301</v>
       </c>
@@ -10815,13 +10846,13 @@
         <v>107.1009914</v>
       </c>
       <c r="I293">
-        <v>33.09120994</v>
+        <v>33.091209939999999</v>
       </c>
       <c r="J293" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -10832,7 +10863,7 @@
         <v>277175</v>
       </c>
       <c r="D294">
-        <v>0.9745611977992245</v>
+        <v>0.97456119779922445</v>
       </c>
       <c r="E294" t="s">
         <v>302</v>
@@ -10847,13 +10878,13 @@
         <v>109.8484405</v>
       </c>
       <c r="I294">
-        <v>34.94728407</v>
+        <v>34.947284070000002</v>
       </c>
       <c r="J294" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>303</v>
       </c>
@@ -10864,7 +10895,7 @@
         <v>2032034</v>
       </c>
       <c r="D295">
-        <v>0.966868664599116</v>
+        <v>0.96686866459911602</v>
       </c>
       <c r="E295" t="s">
         <v>303</v>
@@ -10879,13 +10910,13 @@
         <v>108.7837633</v>
       </c>
       <c r="I295">
-        <v>34.10621681</v>
+        <v>34.106216809999999</v>
       </c>
       <c r="J295" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>304</v>
       </c>
@@ -10896,7 +10927,7 @@
         <v>53657</v>
       </c>
       <c r="D296">
-        <v>0.9735542426896771</v>
+        <v>0.97355424268967705</v>
       </c>
       <c r="E296" t="s">
         <v>304</v>
@@ -10911,13 +10942,13 @@
         <v>109.0324179</v>
       </c>
       <c r="I296">
-        <v>35.19490842</v>
+        <v>35.194908419999997</v>
       </c>
       <c r="J296" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>305</v>
       </c>
@@ -10928,7 +10959,7 @@
         <v>29650</v>
       </c>
       <c r="D297">
-        <v>0.9186172006745362</v>
+        <v>0.91861720067453623</v>
       </c>
       <c r="E297" t="s">
         <v>305</v>
@@ -10943,13 +10974,13 @@
         <v>102.3436308</v>
       </c>
       <c r="I297">
-        <v>36.32893483</v>
+        <v>36.328934830000001</v>
       </c>
       <c r="J297" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -10960,7 +10991,7 @@
         <v>175361</v>
       </c>
       <c r="D298">
-        <v>0.9096492378579044</v>
+        <v>0.90964923785790441</v>
       </c>
       <c r="E298" t="s">
         <v>306</v>
@@ -10975,13 +11006,13 @@
         <v>101.4495948</v>
       </c>
       <c r="I298">
-        <v>36.81656849</v>
+        <v>36.816568490000002</v>
       </c>
       <c r="J298" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>307</v>
       </c>
@@ -10992,7 +11023,7 @@
         <v>54910</v>
       </c>
       <c r="D299">
-        <v>0.9758878164268804</v>
+        <v>0.97588781642688038</v>
       </c>
       <c r="E299" t="s">
         <v>307</v>
@@ -11004,16 +11035,16 @@
         <v>346</v>
       </c>
       <c r="H299">
-        <v>130.9704298</v>
+        <v>130.97042980000001</v>
       </c>
       <c r="I299">
-        <v>45.91103336</v>
+        <v>45.911033359999998</v>
       </c>
       <c r="J299" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>308</v>
       </c>
@@ -11024,7 +11055,7 @@
         <v>75956</v>
       </c>
       <c r="D300">
-        <v>0.9709963663173417</v>
+        <v>0.97099636631734165</v>
       </c>
       <c r="E300" t="s">
         <v>308</v>
@@ -11039,13 +11070,13 @@
         <v>129.2005796</v>
       </c>
       <c r="I300">
-        <v>47.80304955</v>
+        <v>47.803049549999997</v>
       </c>
       <c r="J300" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>309</v>
       </c>
@@ -11056,7 +11087,7 @@
         <v>197464</v>
       </c>
       <c r="D301">
-        <v>0.9751043228132724</v>
+        <v>0.97510432281327242</v>
       </c>
       <c r="E301" t="s">
         <v>309</v>
@@ -11068,16 +11099,16 @@
         <v>346</v>
       </c>
       <c r="H301">
-        <v>132.2360925</v>
+        <v>132.23609250000001</v>
       </c>
       <c r="I301">
-        <v>47.27247682</v>
+        <v>47.272476820000001</v>
       </c>
       <c r="J301" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>310</v>
       </c>
@@ -11088,7 +11119,7 @@
         <v>93821</v>
       </c>
       <c r="D302">
-        <v>0.9710405985866704</v>
+        <v>0.97104059858667036</v>
       </c>
       <c r="E302" t="s">
         <v>310</v>
@@ -11100,16 +11131,16 @@
         <v>346</v>
       </c>
       <c r="H302">
-        <v>132.5404067</v>
+        <v>132.54040670000001</v>
       </c>
       <c r="I302">
-        <v>46.68145777</v>
+        <v>46.681457770000002</v>
       </c>
       <c r="J302" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>311</v>
       </c>
@@ -11120,7 +11151,7 @@
         <v>1219947</v>
       </c>
       <c r="D303">
-        <v>0.9697986879757892</v>
+        <v>0.96979868797578916</v>
       </c>
       <c r="E303" t="s">
         <v>311</v>
@@ -11141,7 +11172,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>312</v>
       </c>
@@ -11152,7 +11183,7 @@
         <v>293340</v>
       </c>
       <c r="D304">
-        <v>0.9685825322151768</v>
+        <v>0.96858253221517676</v>
       </c>
       <c r="E304" t="s">
         <v>312</v>
@@ -11164,16 +11195,16 @@
         <v>346</v>
       </c>
       <c r="H304">
-        <v>124.70207</v>
+        <v>124.70207000000001</v>
       </c>
       <c r="I304">
-        <v>46.34271683</v>
+        <v>46.342716830000001</v>
       </c>
       <c r="J304" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>313</v>
       </c>
@@ -11184,7 +11215,7 @@
         <v>202802</v>
       </c>
       <c r="D305">
-        <v>0.969324760110847</v>
+        <v>0.96932476011084701</v>
       </c>
       <c r="E305" t="s">
         <v>313</v>
@@ -11196,16 +11227,16 @@
         <v>346</v>
       </c>
       <c r="H305">
-        <v>129.8893101</v>
+        <v>129.88931009999999</v>
       </c>
       <c r="I305">
-        <v>44.59320966</v>
+        <v>44.593209659999999</v>
       </c>
       <c r="J305" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>314</v>
       </c>
@@ -11216,7 +11247,7 @@
         <v>208104</v>
       </c>
       <c r="D306">
-        <v>0.9756275708299696</v>
+        <v>0.97562757082996965</v>
       </c>
       <c r="E306" t="s">
         <v>314</v>
@@ -11231,13 +11262,13 @@
         <v>126.6347861</v>
       </c>
       <c r="I306">
-        <v>46.8918917</v>
+        <v>46.891891700000002</v>
       </c>
       <c r="J306" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>315</v>
       </c>
@@ -11248,7 +11279,7 @@
         <v>121485</v>
       </c>
       <c r="D307">
-        <v>0.9722352553813228</v>
+        <v>0.97223525538132283</v>
       </c>
       <c r="E307" t="s">
         <v>315</v>
@@ -11263,13 +11294,13 @@
         <v>132.27999</v>
       </c>
       <c r="I307">
-        <v>45.6316844</v>
+        <v>45.631684399999997</v>
       </c>
       <c r="J307" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>316</v>
       </c>
@@ -11292,16 +11323,16 @@
         <v>346</v>
       </c>
       <c r="H308">
-        <v>130.8041176</v>
+        <v>130.80411760000001</v>
       </c>
       <c r="I308">
-        <v>47.63909731</v>
+        <v>47.639097309999997</v>
       </c>
       <c r="J308" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>317</v>
       </c>
@@ -11312,7 +11343,7 @@
         <v>112545</v>
       </c>
       <c r="D309">
-        <v>0.9737438357990136</v>
+        <v>0.97374383579901358</v>
       </c>
       <c r="E309" t="s">
         <v>317</v>
@@ -11324,16 +11355,16 @@
         <v>346</v>
       </c>
       <c r="H309">
-        <v>126.9978173</v>
+        <v>126.99781729999999</v>
       </c>
       <c r="I309">
-        <v>49.25535949</v>
+        <v>49.255359489999996</v>
       </c>
       <c r="J309" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>318</v>
       </c>
@@ -11344,7 +11375,7 @@
         <v>284455</v>
       </c>
       <c r="D310">
-        <v>0.9719639310259972</v>
+        <v>0.97196393102599721</v>
       </c>
       <c r="E310" t="s">
         <v>318</v>
@@ -11356,16 +11387,18 @@
         <v>346</v>
       </c>
       <c r="H310">
-        <v>124.5356942</v>
+        <v>124.53569419999999</v>
       </c>
       <c r="I310">
-        <v>47.69864886</v>
+        <v>47.698648859999999</v>
       </c>
       <c r="J310" t="s">
         <v>353</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>